--- a/transformed-prepayment-scenarios.xlsx
+++ b/transformed-prepayment-scenarios.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -536,43 +536,43 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>gZqHVCs6</v>
+        <v>m8gHuFQp</v>
       </c>
       <c r="B3" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C3" t="str">
-        <v>1SA0002500</v>
+        <v>1SA0003836</v>
       </c>
       <c r="D3" t="str">
         <v>10</v>
       </c>
       <c r="E3" t="str">
-        <v>959</v>
+        <v>2304</v>
       </c>
       <c r="F3" t="str">
         <v>USD</v>
       </c>
       <c r="G3" t="str">
-        <v>1SA5000605</v>
+        <v>1SA5002204</v>
       </c>
       <c r="H3" t="str">
-        <v>gZqHVCs6</v>
+        <v>m8gHuFQp</v>
       </c>
       <c r="I3" t="str">
-        <v>1SA0002550</v>
+        <v>1SA0003936</v>
       </c>
       <c r="J3" t="str">
         <v>10</v>
       </c>
       <c r="K3" t="str">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="L3" t="str">
         <v>USD</v>
       </c>
       <c r="M3" t="str">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="N3" t="str">
         <v>SAC1</v>
@@ -581,7 +581,7 @@
         <v>JSON</v>
       </c>
       <c r="P3" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q3" t="str">
         <v>OneToMany</v>
@@ -592,43 +592,43 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>gZqHVCs6</v>
+        <v>m8gHuFQp</v>
       </c>
       <c r="B4" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C4" t="str">
-        <v>1SA0002500</v>
+        <v>1SA0003836</v>
       </c>
       <c r="D4" t="str">
         <v>10</v>
       </c>
       <c r="E4" t="str">
-        <v>959</v>
+        <v>2304</v>
       </c>
       <c r="F4" t="str">
         <v>USD</v>
       </c>
       <c r="G4" t="str">
-        <v>1SA5000605</v>
+        <v>1SA5002204</v>
       </c>
       <c r="H4" t="str">
-        <v>gZqHVCs6</v>
+        <v>m8gHuFQp</v>
       </c>
       <c r="I4" t="str">
-        <v>1SA0002551</v>
+        <v>1SA0003937</v>
       </c>
       <c r="J4" t="str">
         <v>10</v>
       </c>
       <c r="K4" t="str">
-        <v>686</v>
+        <v>2274</v>
       </c>
       <c r="L4" t="str">
         <v>USD</v>
       </c>
       <c r="M4" t="str">
-        <v>686</v>
+        <v>2274</v>
       </c>
       <c r="N4" t="str">
         <v>SAC1</v>
@@ -637,7 +637,7 @@
         <v>JSON</v>
       </c>
       <c r="P4" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q4" t="str">
         <v>OneToMany</v>
@@ -648,43 +648,43 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>VpeyOkYA</v>
+        <v>gai3At0u</v>
       </c>
       <c r="B5" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C5" t="str">
-        <v>1SA0002501</v>
+        <v>1SA0003837</v>
       </c>
       <c r="D5" t="str">
         <v>10</v>
       </c>
       <c r="E5" t="str">
-        <v>511</v>
+        <v>2468</v>
       </c>
       <c r="F5" t="str">
         <v>USD</v>
       </c>
       <c r="G5" t="str">
-        <v>1SA5000606</v>
+        <v>1SA5002205</v>
       </c>
       <c r="H5" t="str">
-        <v>VpeyOkYA</v>
+        <v>gai3At0u</v>
       </c>
       <c r="I5" t="str">
-        <v>1SA0002552</v>
+        <v>1SA0003938</v>
       </c>
       <c r="J5" t="str">
         <v>10</v>
       </c>
       <c r="K5" t="str">
-        <v>1290</v>
+        <v>2468</v>
       </c>
       <c r="L5" t="str">
         <v>USD</v>
       </c>
       <c r="M5" t="str">
-        <v>1290</v>
+        <v>2468</v>
       </c>
       <c r="N5" t="str">
         <v>SAC1</v>
@@ -693,7 +693,7 @@
         <v>JSON</v>
       </c>
       <c r="P5" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q5" t="str">
         <v>OneToOne</v>
@@ -704,43 +704,43 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Hr41VZMY</v>
+        <v>Z5sVyNuE</v>
       </c>
       <c r="B6" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C6" t="str">
-        <v>1SA0002502</v>
+        <v>1SA0003838</v>
       </c>
       <c r="D6" t="str">
         <v>10</v>
       </c>
       <c r="E6" t="str">
-        <v>691</v>
+        <v>2403</v>
       </c>
       <c r="F6" t="str">
         <v>USD</v>
       </c>
       <c r="G6" t="str">
-        <v>1SA5000607</v>
+        <v>1SA5002206</v>
       </c>
       <c r="H6" t="str">
-        <v>RhgoXd9AV</v>
+        <v>Z5sVyNuE</v>
       </c>
       <c r="I6" t="str">
-        <v>1SA0002553</v>
+        <v>1SA0003939</v>
       </c>
       <c r="J6" t="str">
         <v>10</v>
       </c>
       <c r="K6" t="str">
-        <v>84</v>
+        <v>924</v>
       </c>
       <c r="L6" t="str">
         <v>USD</v>
       </c>
       <c r="M6" t="str">
-        <v>84</v>
+        <v>924</v>
       </c>
       <c r="N6" t="str">
         <v>SAC1</v>
@@ -749,7 +749,7 @@
         <v>JSON</v>
       </c>
       <c r="P6" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q6" t="str">
         <v>OneToMany</v>
@@ -760,43 +760,43 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Hr41VZMY</v>
+        <v>Z5sVyNuE</v>
       </c>
       <c r="B7" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C7" t="str">
-        <v>1SA0002502</v>
+        <v>1SA0003838</v>
       </c>
       <c r="D7" t="str">
         <v>10</v>
       </c>
       <c r="E7" t="str">
-        <v>691</v>
+        <v>2403</v>
       </c>
       <c r="F7" t="str">
         <v>USD</v>
       </c>
       <c r="G7" t="str">
-        <v>1SA5000607</v>
+        <v>1SA5002206</v>
       </c>
       <c r="H7" t="str">
-        <v>8NqSywtXG</v>
+        <v>Z5sVyNuE</v>
       </c>
       <c r="I7" t="str">
-        <v>1SA0002554</v>
+        <v>1SA0003940</v>
       </c>
       <c r="J7" t="str">
         <v>10</v>
       </c>
       <c r="K7" t="str">
-        <v>607</v>
+        <v>1967</v>
       </c>
       <c r="L7" t="str">
         <v>USD</v>
       </c>
       <c r="M7" t="str">
-        <v>607</v>
+        <v>1967</v>
       </c>
       <c r="N7" t="str">
         <v>SAC1</v>
@@ -805,7 +805,7 @@
         <v>JSON</v>
       </c>
       <c r="P7" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q7" t="str">
         <v>OneToMany</v>
@@ -816,43 +816,43 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>TK1sAc7O</v>
+        <v>kynoj8TL</v>
       </c>
       <c r="B8" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C8" t="str">
-        <v>1SA0002503</v>
+        <v>1SA0003839</v>
       </c>
       <c r="D8" t="str">
         <v>10</v>
       </c>
       <c r="E8" t="str">
-        <v>1290</v>
+        <v>2480</v>
       </c>
       <c r="F8" t="str">
         <v>USD</v>
       </c>
       <c r="G8" t="str">
-        <v>1SA5000608</v>
+        <v>1SA5002207</v>
       </c>
       <c r="H8" t="str">
-        <v>okYV8EyFO</v>
+        <v>kynoj8TL</v>
       </c>
       <c r="I8" t="str">
-        <v>1SA0002555</v>
+        <v>1SA0003941</v>
       </c>
       <c r="J8" t="str">
         <v>10</v>
       </c>
       <c r="K8" t="str">
-        <v>1420</v>
+        <v>2746</v>
       </c>
       <c r="L8" t="str">
         <v>USD</v>
       </c>
       <c r="M8" t="str">
-        <v>1420</v>
+        <v>2746</v>
       </c>
       <c r="N8" t="str">
         <v>SAC1</v>
@@ -861,7 +861,7 @@
         <v>JSON</v>
       </c>
       <c r="P8" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q8" t="str">
         <v>OneToOne</v>
@@ -872,43 +872,43 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>SOLF9aHw</v>
+        <v>Q68rp1wc</v>
       </c>
       <c r="B9" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C9" t="str">
-        <v>1SA0002504</v>
+        <v>1SA0003840</v>
       </c>
       <c r="D9" t="str">
         <v>10</v>
       </c>
       <c r="E9" t="str">
-        <v>1795</v>
+        <v>2485</v>
       </c>
       <c r="F9" t="str">
         <v>USD</v>
       </c>
       <c r="G9" t="str">
-        <v>1SA5000609</v>
+        <v>1SA5002208</v>
       </c>
       <c r="H9" t="str">
-        <v>SOLF9aHw</v>
+        <v>U64Kk4oSM</v>
       </c>
       <c r="I9" t="str">
-        <v>1SA0002556</v>
+        <v>1SA0003942</v>
       </c>
       <c r="J9" t="str">
         <v>10</v>
       </c>
       <c r="K9" t="str">
-        <v>2449</v>
+        <v>3097</v>
       </c>
       <c r="L9" t="str">
         <v>USD</v>
       </c>
       <c r="M9" t="str">
-        <v>2449</v>
+        <v>3097</v>
       </c>
       <c r="N9" t="str">
         <v>SAC1</v>
@@ -917,7 +917,7 @@
         <v>JSON</v>
       </c>
       <c r="P9" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q9" t="str">
         <v>OneToOne</v>
@@ -928,43 +928,43 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>XiPWHRAK</v>
+        <v>Kz47su59</v>
       </c>
       <c r="B10" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C10" t="str">
-        <v>1SA0002505</v>
+        <v>1SA0003841</v>
       </c>
       <c r="D10" t="str">
         <v>10</v>
       </c>
       <c r="E10" t="str">
-        <v>2076</v>
+        <v>2364</v>
       </c>
       <c r="F10" t="str">
         <v>USD</v>
       </c>
       <c r="G10" t="str">
-        <v>1SA5000610</v>
+        <v>1SA5002209</v>
       </c>
       <c r="H10" t="str">
-        <v>XiPWHRAK</v>
+        <v>Kz47su59</v>
       </c>
       <c r="I10" t="str">
-        <v>1SA0002557</v>
+        <v>1SA0003943</v>
       </c>
       <c r="J10" t="str">
         <v>10</v>
       </c>
       <c r="K10" t="str">
-        <v>2796</v>
+        <v>2645</v>
       </c>
       <c r="L10" t="str">
         <v>USD</v>
       </c>
       <c r="M10" t="str">
-        <v>2796</v>
+        <v>2645</v>
       </c>
       <c r="N10" t="str">
         <v>SAC1</v>
@@ -984,43 +984,43 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2x3PC6Mc</v>
+        <v>qsnC23HT</v>
       </c>
       <c r="B11" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C11" t="str">
-        <v>1SA0002506</v>
+        <v>1SA0003842</v>
       </c>
       <c r="D11" t="str">
         <v>10</v>
       </c>
       <c r="E11" t="str">
-        <v>1308</v>
+        <v>2355</v>
       </c>
       <c r="F11" t="str">
         <v>USD</v>
       </c>
       <c r="G11" t="str">
-        <v>1SA5000611</v>
+        <v>1SA5002210</v>
       </c>
       <c r="H11" t="str">
-        <v>2x3PC6Mc</v>
+        <v>qsnC23HT</v>
       </c>
       <c r="I11" t="str">
-        <v>1SA0002558</v>
+        <v>1SA0003944</v>
       </c>
       <c r="J11" t="str">
         <v>10</v>
       </c>
       <c r="K11" t="str">
-        <v>1780</v>
+        <v>2355</v>
       </c>
       <c r="L11" t="str">
         <v>USD</v>
       </c>
       <c r="M11" t="str">
-        <v>1780</v>
+        <v>2355</v>
       </c>
       <c r="N11" t="str">
         <v>SAC1</v>
@@ -1029,7 +1029,7 @@
         <v>JSON</v>
       </c>
       <c r="P11" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q11" t="str">
         <v>OneToOne</v>
@@ -1040,43 +1040,43 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>j5JkmZIB</v>
+        <v>eLZs2JMb</v>
       </c>
       <c r="B12" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C12" t="str">
-        <v>1SA0002507</v>
+        <v>1SA0003843</v>
       </c>
       <c r="D12" t="str">
         <v>10</v>
       </c>
       <c r="E12" t="str">
-        <v>1378</v>
+        <v>2469</v>
       </c>
       <c r="F12" t="str">
         <v>USD</v>
       </c>
       <c r="G12" t="str">
-        <v>1SA5000612</v>
+        <v>1SA5002211</v>
       </c>
       <c r="H12" t="str">
-        <v>j5JkmZIB</v>
+        <v>YD5gIKY8d</v>
       </c>
       <c r="I12" t="str">
-        <v>1SA0002559</v>
+        <v>1SA0003945</v>
       </c>
       <c r="J12" t="str">
         <v>10</v>
       </c>
       <c r="K12" t="str">
-        <v>641</v>
+        <v>3223</v>
       </c>
       <c r="L12" t="str">
         <v>USD</v>
       </c>
       <c r="M12" t="str">
-        <v>641</v>
+        <v>3223</v>
       </c>
       <c r="N12" t="str">
         <v>SAC1</v>
@@ -1085,54 +1085,54 @@
         <v>JSON</v>
       </c>
       <c r="P12" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q12" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R12" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>j5JkmZIB</v>
+        <v>GJVwq03Y</v>
       </c>
       <c r="B13" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C13" t="str">
-        <v>1SA0002507</v>
+        <v>1SA0003844</v>
       </c>
       <c r="D13" t="str">
         <v>10</v>
       </c>
       <c r="E13" t="str">
-        <v>1378</v>
+        <v>734</v>
       </c>
       <c r="F13" t="str">
         <v>USD</v>
       </c>
       <c r="G13" t="str">
-        <v>1SA5000612</v>
+        <v>1SA5002212</v>
       </c>
       <c r="H13" t="str">
-        <v>j5JkmZIB</v>
+        <v>GJVwq03Y</v>
       </c>
       <c r="I13" t="str">
-        <v>1SA0002560</v>
+        <v>1SA0003946</v>
       </c>
       <c r="J13" t="str">
         <v>10</v>
       </c>
       <c r="K13" t="str">
-        <v>1144</v>
+        <v>16</v>
       </c>
       <c r="L13" t="str">
         <v>USD</v>
       </c>
       <c r="M13" t="str">
-        <v>1144</v>
+        <v>16</v>
       </c>
       <c r="N13" t="str">
         <v>SAC1</v>
@@ -1152,43 +1152,43 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>mIOH63Ko</v>
+        <v>GJVwq03Y</v>
       </c>
       <c r="B14" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C14" t="str">
-        <v>1SA0002508</v>
+        <v>1SA0003844</v>
       </c>
       <c r="D14" t="str">
         <v>10</v>
       </c>
       <c r="E14" t="str">
-        <v>2422</v>
+        <v>734</v>
       </c>
       <c r="F14" t="str">
         <v>USD</v>
       </c>
       <c r="G14" t="str">
-        <v>1SA5000613</v>
+        <v>1SA5002212</v>
       </c>
       <c r="H14" t="str">
-        <v>mIOH63Ko</v>
+        <v>GJVwq03Y</v>
       </c>
       <c r="I14" t="str">
-        <v>1SA0002561</v>
+        <v>1SA0003947</v>
       </c>
       <c r="J14" t="str">
         <v>10</v>
       </c>
       <c r="K14" t="str">
-        <v>2422</v>
+        <v>1075</v>
       </c>
       <c r="L14" t="str">
         <v>USD</v>
       </c>
       <c r="M14" t="str">
-        <v>2422</v>
+        <v>1075</v>
       </c>
       <c r="N14" t="str">
         <v>SAC1</v>
@@ -1197,54 +1197,54 @@
         <v>JSON</v>
       </c>
       <c r="P14" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q14" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R14" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>nct26FBi</v>
+        <v>TO4GeI9h</v>
       </c>
       <c r="B15" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C15" t="str">
-        <v>1SA0002509</v>
+        <v>1SA0003845</v>
       </c>
       <c r="D15" t="str">
         <v>10</v>
       </c>
       <c r="E15" t="str">
-        <v>1210</v>
+        <v>722</v>
       </c>
       <c r="F15" t="str">
         <v>USD</v>
       </c>
       <c r="G15" t="str">
-        <v>1SA5000614</v>
+        <v>1SA5002213</v>
       </c>
       <c r="H15" t="str">
-        <v>XcwbRVE2T</v>
+        <v>TO4GeI9h</v>
       </c>
       <c r="I15" t="str">
-        <v>1SA0002562</v>
+        <v>1SA0003948</v>
       </c>
       <c r="J15" t="str">
         <v>10</v>
       </c>
       <c r="K15" t="str">
-        <v>479</v>
+        <v>722</v>
       </c>
       <c r="L15" t="str">
         <v>USD</v>
       </c>
       <c r="M15" t="str">
-        <v>479</v>
+        <v>722</v>
       </c>
       <c r="N15" t="str">
         <v>SAC1</v>
@@ -1253,54 +1253,54 @@
         <v>JSON</v>
       </c>
       <c r="P15" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q15" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R15" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>nct26FBi</v>
+        <v>KXsOAJQ6</v>
       </c>
       <c r="B16" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C16" t="str">
-        <v>1SA0002509</v>
+        <v>1SA0003846</v>
       </c>
       <c r="D16" t="str">
         <v>10</v>
       </c>
       <c r="E16" t="str">
-        <v>1210</v>
+        <v>1612</v>
       </c>
       <c r="F16" t="str">
         <v>USD</v>
       </c>
       <c r="G16" t="str">
-        <v>1SA5000614</v>
+        <v>1SA5002214</v>
       </c>
       <c r="H16" t="str">
-        <v>UvJ4YnGLW</v>
+        <v>KXsOAJQ6</v>
       </c>
       <c r="I16" t="str">
-        <v>1SA0002563</v>
+        <v>1SA0003949</v>
       </c>
       <c r="J16" t="str">
         <v>10</v>
       </c>
       <c r="K16" t="str">
-        <v>998</v>
+        <v>1612</v>
       </c>
       <c r="L16" t="str">
         <v>USD</v>
       </c>
       <c r="M16" t="str">
-        <v>998</v>
+        <v>1612</v>
       </c>
       <c r="N16" t="str">
         <v>SAC1</v>
@@ -1309,54 +1309,54 @@
         <v>JSON</v>
       </c>
       <c r="P16" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q16" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R16" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>U5uz8GPQ</v>
+        <v>0L1vbP3w</v>
       </c>
       <c r="B17" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C17" t="str">
-        <v>1SA0002510</v>
+        <v>1SA0003847</v>
       </c>
       <c r="D17" t="str">
         <v>10</v>
       </c>
       <c r="E17" t="str">
-        <v>2152</v>
+        <v>1988</v>
       </c>
       <c r="F17" t="str">
         <v>USD</v>
       </c>
       <c r="G17" t="str">
-        <v>1SA5000615</v>
+        <v>1SA5002215</v>
       </c>
       <c r="H17" t="str">
-        <v>gdIndN8yd</v>
+        <v>0L1vbP3w</v>
       </c>
       <c r="I17" t="str">
-        <v>1SA0002564</v>
+        <v>1SA0003950</v>
       </c>
       <c r="J17" t="str">
         <v>10</v>
       </c>
       <c r="K17" t="str">
-        <v>2152</v>
+        <v>2715</v>
       </c>
       <c r="L17" t="str">
         <v>USD</v>
       </c>
       <c r="M17" t="str">
-        <v>2152</v>
+        <v>2715</v>
       </c>
       <c r="N17" t="str">
         <v>SAC1</v>
@@ -1365,7 +1365,7 @@
         <v>JSON</v>
       </c>
       <c r="P17" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q17" t="str">
         <v>OneToOne</v>
@@ -1376,43 +1376,43 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>FBhYOaAl</v>
+        <v>BadO9PFG</v>
       </c>
       <c r="B18" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C18" t="str">
-        <v>1SA0002511</v>
+        <v>1SA0003848</v>
       </c>
       <c r="D18" t="str">
         <v>10</v>
       </c>
       <c r="E18" t="str">
-        <v>2128</v>
+        <v>2383</v>
       </c>
       <c r="F18" t="str">
         <v>USD</v>
       </c>
       <c r="G18" t="str">
-        <v>1SA5000616</v>
+        <v>1SA5002216</v>
       </c>
       <c r="H18" t="str">
-        <v>FBhYOaAl</v>
+        <v>BadO9PFG</v>
       </c>
       <c r="I18" t="str">
-        <v>1SA0002565</v>
+        <v>1SA0003951</v>
       </c>
       <c r="J18" t="str">
         <v>10</v>
       </c>
       <c r="K18" t="str">
-        <v>2908</v>
+        <v>1262</v>
       </c>
       <c r="L18" t="str">
         <v>USD</v>
       </c>
       <c r="M18" t="str">
-        <v>2908</v>
+        <v>1262</v>
       </c>
       <c r="N18" t="str">
         <v>SAC1</v>
@@ -1424,51 +1424,51 @@
         <v>OverDelivery-Happy</v>
       </c>
       <c r="Q18" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R18" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>MJPlpgSn</v>
+        <v>BadO9PFG</v>
       </c>
       <c r="B19" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C19" t="str">
-        <v>1SA0002512</v>
+        <v>1SA0003848</v>
       </c>
       <c r="D19" t="str">
         <v>10</v>
       </c>
       <c r="E19" t="str">
-        <v>1723</v>
+        <v>2383</v>
       </c>
       <c r="F19" t="str">
         <v>USD</v>
       </c>
       <c r="G19" t="str">
-        <v>1SA5000617</v>
+        <v>1SA5002216</v>
       </c>
       <c r="H19" t="str">
-        <v>MJPlpgSn</v>
+        <v>BadO9PFG</v>
       </c>
       <c r="I19" t="str">
-        <v>1SA0002566</v>
+        <v>1SA0003952</v>
       </c>
       <c r="J19" t="str">
         <v>10</v>
       </c>
       <c r="K19" t="str">
-        <v>2008</v>
+        <v>1544</v>
       </c>
       <c r="L19" t="str">
         <v>USD</v>
       </c>
       <c r="M19" t="str">
-        <v>2008</v>
+        <v>1544</v>
       </c>
       <c r="N19" t="str">
         <v>SAC1</v>
@@ -1480,51 +1480,51 @@
         <v>OverDelivery-Happy</v>
       </c>
       <c r="Q19" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R19" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>ZAj8pbvM</v>
+        <v>zlEsMVGO</v>
       </c>
       <c r="B20" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C20" t="str">
-        <v>1SA0002513</v>
+        <v>1SA0003849</v>
       </c>
       <c r="D20" t="str">
         <v>10</v>
       </c>
       <c r="E20" t="str">
-        <v>639</v>
+        <v>664</v>
       </c>
       <c r="F20" t="str">
         <v>USD</v>
       </c>
       <c r="G20" t="str">
-        <v>1SA5000618</v>
+        <v>1SA5002217</v>
       </c>
       <c r="H20" t="str">
-        <v>X1acKZUOJ</v>
+        <v>zlEsMVGO</v>
       </c>
       <c r="I20" t="str">
-        <v>1SA0002567</v>
+        <v>1SA0003953</v>
       </c>
       <c r="J20" t="str">
         <v>10</v>
       </c>
       <c r="K20" t="str">
-        <v>171</v>
+        <v>985</v>
       </c>
       <c r="L20" t="str">
         <v>USD</v>
       </c>
       <c r="M20" t="str">
-        <v>171</v>
+        <v>985</v>
       </c>
       <c r="N20" t="str">
         <v>SAC1</v>
@@ -1533,54 +1533,54 @@
         <v>JSON</v>
       </c>
       <c r="P20" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q20" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R20" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>ZAj8pbvM</v>
+        <v>Tit7LgXU</v>
       </c>
       <c r="B21" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C21" t="str">
-        <v>1SA0002513</v>
+        <v>1SA0003850</v>
       </c>
       <c r="D21" t="str">
         <v>10</v>
       </c>
       <c r="E21" t="str">
-        <v>639</v>
+        <v>2449</v>
       </c>
       <c r="F21" t="str">
         <v>USD</v>
       </c>
       <c r="G21" t="str">
-        <v>1SA5000618</v>
+        <v>1SA5002218</v>
       </c>
       <c r="H21" t="str">
-        <v>QWanaU14P</v>
+        <v>Jtr1K5cwf</v>
       </c>
       <c r="I21" t="str">
-        <v>1SA0002568</v>
+        <v>1SA0003954</v>
       </c>
       <c r="J21" t="str">
         <v>10</v>
       </c>
       <c r="K21" t="str">
-        <v>468</v>
+        <v>832</v>
       </c>
       <c r="L21" t="str">
         <v>USD</v>
       </c>
       <c r="M21" t="str">
-        <v>468</v>
+        <v>832</v>
       </c>
       <c r="N21" t="str">
         <v>SAC1</v>
@@ -1600,43 +1600,43 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>TXbC6jR5</v>
+        <v>Tit7LgXU</v>
       </c>
       <c r="B22" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C22" t="str">
-        <v>1SA0002514</v>
+        <v>1SA0003850</v>
       </c>
       <c r="D22" t="str">
         <v>10</v>
       </c>
       <c r="E22" t="str">
-        <v>860</v>
+        <v>2449</v>
       </c>
       <c r="F22" t="str">
         <v>USD</v>
       </c>
       <c r="G22" t="str">
-        <v>1SA5000619</v>
+        <v>1SA5002218</v>
       </c>
       <c r="H22" t="str">
-        <v>jm9y2ro7K</v>
+        <v>ouDGHdtiJ</v>
       </c>
       <c r="I22" t="str">
-        <v>1SA0002569</v>
+        <v>1SA0003955</v>
       </c>
       <c r="J22" t="str">
         <v>10</v>
       </c>
       <c r="K22" t="str">
-        <v>295</v>
+        <v>1617</v>
       </c>
       <c r="L22" t="str">
         <v>USD</v>
       </c>
       <c r="M22" t="str">
-        <v>295</v>
+        <v>1617</v>
       </c>
       <c r="N22" t="str">
         <v>SAC1</v>
@@ -1645,7 +1645,7 @@
         <v>JSON</v>
       </c>
       <c r="P22" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q22" t="str">
         <v>OneToMany</v>
@@ -1656,43 +1656,43 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>TXbC6jR5</v>
+        <v>Vdi74mk3</v>
       </c>
       <c r="B23" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C23" t="str">
-        <v>1SA0002514</v>
+        <v>1SA0003851</v>
       </c>
       <c r="D23" t="str">
         <v>10</v>
       </c>
       <c r="E23" t="str">
-        <v>860</v>
+        <v>2112</v>
       </c>
       <c r="F23" t="str">
         <v>USD</v>
       </c>
       <c r="G23" t="str">
-        <v>1SA5000619</v>
+        <v>1SA5002219</v>
       </c>
       <c r="H23" t="str">
-        <v>TxFjBkZ97</v>
+        <v>Vdi74mk3</v>
       </c>
       <c r="I23" t="str">
-        <v>1SA0002570</v>
+        <v>1SA0003956</v>
       </c>
       <c r="J23" t="str">
         <v>10</v>
       </c>
       <c r="K23" t="str">
-        <v>1028</v>
+        <v>994</v>
       </c>
       <c r="L23" t="str">
         <v>USD</v>
       </c>
       <c r="M23" t="str">
-        <v>1028</v>
+        <v>994</v>
       </c>
       <c r="N23" t="str">
         <v>SAC1</v>
@@ -1701,7 +1701,7 @@
         <v>JSON</v>
       </c>
       <c r="P23" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q23" t="str">
         <v>OneToMany</v>
@@ -1712,43 +1712,43 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>0xsyMWYU</v>
+        <v>Vdi74mk3</v>
       </c>
       <c r="B24" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C24" t="str">
-        <v>1SA0002515</v>
+        <v>1SA0003851</v>
       </c>
       <c r="D24" t="str">
         <v>10</v>
       </c>
       <c r="E24" t="str">
-        <v>863</v>
+        <v>2112</v>
       </c>
       <c r="F24" t="str">
         <v>USD</v>
       </c>
       <c r="G24" t="str">
-        <v>1SA5000620</v>
+        <v>1SA5002219</v>
       </c>
       <c r="H24" t="str">
-        <v>0xsyMWYU</v>
+        <v>Vdi74mk3</v>
       </c>
       <c r="I24" t="str">
-        <v>1SA0002571</v>
+        <v>1SA0003957</v>
       </c>
       <c r="J24" t="str">
         <v>10</v>
       </c>
       <c r="K24" t="str">
-        <v>18</v>
+        <v>1196</v>
       </c>
       <c r="L24" t="str">
         <v>USD</v>
       </c>
       <c r="M24" t="str">
-        <v>18</v>
+        <v>1196</v>
       </c>
       <c r="N24" t="str">
         <v>SAC1</v>
@@ -1757,7 +1757,7 @@
         <v>JSON</v>
       </c>
       <c r="P24" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q24" t="str">
         <v>OneToMany</v>
@@ -1768,43 +1768,43 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>0xsyMWYU</v>
+        <v>3KszGMAV</v>
       </c>
       <c r="B25" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C25" t="str">
-        <v>1SA0002515</v>
+        <v>1SA0003852</v>
       </c>
       <c r="D25" t="str">
         <v>10</v>
       </c>
       <c r="E25" t="str">
-        <v>863</v>
+        <v>2107</v>
       </c>
       <c r="F25" t="str">
         <v>USD</v>
       </c>
       <c r="G25" t="str">
-        <v>1SA5000620</v>
+        <v>1SA5002220</v>
       </c>
       <c r="H25" t="str">
-        <v>0xsyMWYU</v>
+        <v>3KszGMAV</v>
       </c>
       <c r="I25" t="str">
-        <v>1SA0002572</v>
+        <v>1SA0003958</v>
       </c>
       <c r="J25" t="str">
         <v>10</v>
       </c>
       <c r="K25" t="str">
-        <v>845</v>
+        <v>3084</v>
       </c>
       <c r="L25" t="str">
         <v>USD</v>
       </c>
       <c r="M25" t="str">
-        <v>845</v>
+        <v>3084</v>
       </c>
       <c r="N25" t="str">
         <v>SAC1</v>
@@ -1813,54 +1813,54 @@
         <v>JSON</v>
       </c>
       <c r="P25" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q25" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R25" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>yHQ4gSJE</v>
+        <v>6w5R9PhV</v>
       </c>
       <c r="B26" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C26" t="str">
-        <v>1SA0002516</v>
+        <v>1SA0003853</v>
       </c>
       <c r="D26" t="str">
         <v>10</v>
       </c>
       <c r="E26" t="str">
-        <v>1214</v>
+        <v>2008</v>
       </c>
       <c r="F26" t="str">
         <v>USD</v>
       </c>
       <c r="G26" t="str">
-        <v>1SA5000621</v>
+        <v>1SA5002221</v>
       </c>
       <c r="H26" t="str">
-        <v>yHQ4gSJE</v>
+        <v>82s3OInst</v>
       </c>
       <c r="I26" t="str">
-        <v>1SA0002573</v>
+        <v>1SA0003959</v>
       </c>
       <c r="J26" t="str">
         <v>10</v>
       </c>
       <c r="K26" t="str">
-        <v>440</v>
+        <v>2008</v>
       </c>
       <c r="L26" t="str">
         <v>USD</v>
       </c>
       <c r="M26" t="str">
-        <v>440</v>
+        <v>2008</v>
       </c>
       <c r="N26" t="str">
         <v>SAC1</v>
@@ -1869,54 +1869,54 @@
         <v>JSON</v>
       </c>
       <c r="P26" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q26" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R26" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>yHQ4gSJE</v>
+        <v>mRP2tGiy</v>
       </c>
       <c r="B27" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C27" t="str">
-        <v>1SA0002516</v>
+        <v>1SA0003854</v>
       </c>
       <c r="D27" t="str">
         <v>10</v>
       </c>
       <c r="E27" t="str">
-        <v>1214</v>
+        <v>779</v>
       </c>
       <c r="F27" t="str">
         <v>USD</v>
       </c>
       <c r="G27" t="str">
-        <v>1SA5000621</v>
+        <v>1SA5002222</v>
       </c>
       <c r="H27" t="str">
-        <v>yHQ4gSJE</v>
+        <v>Fkt4TQbOt</v>
       </c>
       <c r="I27" t="str">
-        <v>1SA0002574</v>
+        <v>1SA0003960</v>
       </c>
       <c r="J27" t="str">
         <v>10</v>
       </c>
       <c r="K27" t="str">
-        <v>952</v>
+        <v>80</v>
       </c>
       <c r="L27" t="str">
         <v>USD</v>
       </c>
       <c r="M27" t="str">
-        <v>952</v>
+        <v>80</v>
       </c>
       <c r="N27" t="str">
         <v>SAC1</v>
@@ -1925,7 +1925,7 @@
         <v>JSON</v>
       </c>
       <c r="P27" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q27" t="str">
         <v>OneToMany</v>
@@ -1936,43 +1936,43 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>PwkKYao8</v>
+        <v>mRP2tGiy</v>
       </c>
       <c r="B28" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C28" t="str">
-        <v>1SA0002517</v>
+        <v>1SA0003854</v>
       </c>
       <c r="D28" t="str">
         <v>10</v>
       </c>
       <c r="E28" t="str">
-        <v>1812</v>
+        <v>779</v>
       </c>
       <c r="F28" t="str">
         <v>USD</v>
       </c>
       <c r="G28" t="str">
-        <v>1SA5000622</v>
+        <v>1SA5002222</v>
       </c>
       <c r="H28" t="str">
-        <v>pYDwwJvIc</v>
+        <v>dwvIJb0QZ</v>
       </c>
       <c r="I28" t="str">
-        <v>1SA0002575</v>
+        <v>1SA0003961</v>
       </c>
       <c r="J28" t="str">
         <v>10</v>
       </c>
       <c r="K28" t="str">
-        <v>1812</v>
+        <v>894</v>
       </c>
       <c r="L28" t="str">
         <v>USD</v>
       </c>
       <c r="M28" t="str">
-        <v>1812</v>
+        <v>894</v>
       </c>
       <c r="N28" t="str">
         <v>SAC1</v>
@@ -1981,54 +1981,54 @@
         <v>JSON</v>
       </c>
       <c r="P28" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q28" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R28" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>nr8UINx9</v>
+        <v>10mipajo</v>
       </c>
       <c r="B29" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C29" t="str">
-        <v>1SA0002518</v>
+        <v>1SA0003855</v>
       </c>
       <c r="D29" t="str">
         <v>10</v>
       </c>
       <c r="E29" t="str">
-        <v>727</v>
+        <v>2369</v>
       </c>
       <c r="F29" t="str">
         <v>USD</v>
       </c>
       <c r="G29" t="str">
-        <v>1SA5000623</v>
+        <v>1SA5002223</v>
       </c>
       <c r="H29" t="str">
-        <v>nr8UINx9</v>
+        <v>iEJEdQBbL</v>
       </c>
       <c r="I29" t="str">
-        <v>1SA0002576</v>
+        <v>1SA0003962</v>
       </c>
       <c r="J29" t="str">
         <v>10</v>
       </c>
       <c r="K29" t="str">
-        <v>1192</v>
+        <v>730</v>
       </c>
       <c r="L29" t="str">
         <v>USD</v>
       </c>
       <c r="M29" t="str">
-        <v>1192</v>
+        <v>730</v>
       </c>
       <c r="N29" t="str">
         <v>SAC1</v>
@@ -2037,54 +2037,54 @@
         <v>JSON</v>
       </c>
       <c r="P29" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q29" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R29" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>qf4mkpUY</v>
+        <v>10mipajo</v>
       </c>
       <c r="B30" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C30" t="str">
-        <v>1SA0002519</v>
+        <v>1SA0003855</v>
       </c>
       <c r="D30" t="str">
         <v>10</v>
       </c>
       <c r="E30" t="str">
-        <v>1184</v>
+        <v>2369</v>
       </c>
       <c r="F30" t="str">
         <v>USD</v>
       </c>
       <c r="G30" t="str">
-        <v>1SA5000624</v>
+        <v>1SA5002223</v>
       </c>
       <c r="H30" t="str">
-        <v>qf4mkpUY</v>
+        <v>xERzf6Q6Q</v>
       </c>
       <c r="I30" t="str">
-        <v>1SA0002577</v>
+        <v>1SA0003963</v>
       </c>
       <c r="J30" t="str">
         <v>10</v>
       </c>
       <c r="K30" t="str">
-        <v>374</v>
+        <v>1649</v>
       </c>
       <c r="L30" t="str">
         <v>USD</v>
       </c>
       <c r="M30" t="str">
-        <v>374</v>
+        <v>1649</v>
       </c>
       <c r="N30" t="str">
         <v>SAC1</v>
@@ -2093,7 +2093,7 @@
         <v>JSON</v>
       </c>
       <c r="P30" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q30" t="str">
         <v>OneToMany</v>
@@ -2104,43 +2104,43 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>qf4mkpUY</v>
+        <v>HVotN08A</v>
       </c>
       <c r="B31" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C31" t="str">
-        <v>1SA0002519</v>
+        <v>1SA0003856</v>
       </c>
       <c r="D31" t="str">
         <v>10</v>
       </c>
       <c r="E31" t="str">
-        <v>1184</v>
+        <v>729</v>
       </c>
       <c r="F31" t="str">
         <v>USD</v>
       </c>
       <c r="G31" t="str">
-        <v>1SA5000624</v>
+        <v>1SA5002224</v>
       </c>
       <c r="H31" t="str">
-        <v>qf4mkpUY</v>
+        <v>HVotN08A</v>
       </c>
       <c r="I31" t="str">
-        <v>1SA0002578</v>
+        <v>1SA0003964</v>
       </c>
       <c r="J31" t="str">
         <v>10</v>
       </c>
       <c r="K31" t="str">
-        <v>885</v>
+        <v>1521</v>
       </c>
       <c r="L31" t="str">
         <v>USD</v>
       </c>
       <c r="M31" t="str">
-        <v>885</v>
+        <v>1521</v>
       </c>
       <c r="N31" t="str">
         <v>SAC1</v>
@@ -2152,51 +2152,51 @@
         <v>OverDelivery-Happy</v>
       </c>
       <c r="Q31" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R31" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>yS3NM1Rq</v>
+        <v>AIqMKuio</v>
       </c>
       <c r="B32" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C32" t="str">
-        <v>1SA0002520</v>
+        <v>1SA0003857</v>
       </c>
       <c r="D32" t="str">
         <v>10</v>
       </c>
       <c r="E32" t="str">
-        <v>1754</v>
+        <v>2311</v>
       </c>
       <c r="F32" t="str">
         <v>USD</v>
       </c>
       <c r="G32" t="str">
-        <v>1SA5000625</v>
+        <v>1SA5002225</v>
       </c>
       <c r="H32" t="str">
-        <v>yS3NM1Rq</v>
+        <v>24lrpDmA5</v>
       </c>
       <c r="I32" t="str">
-        <v>1SA0002579</v>
+        <v>1SA0003965</v>
       </c>
       <c r="J32" t="str">
         <v>10</v>
       </c>
       <c r="K32" t="str">
-        <v>415</v>
+        <v>1103</v>
       </c>
       <c r="L32" t="str">
         <v>USD</v>
       </c>
       <c r="M32" t="str">
-        <v>415</v>
+        <v>1103</v>
       </c>
       <c r="N32" t="str">
         <v>SAC1</v>
@@ -2205,7 +2205,7 @@
         <v>JSON</v>
       </c>
       <c r="P32" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q32" t="str">
         <v>OneToMany</v>
@@ -2216,43 +2216,43 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>yS3NM1Rq</v>
+        <v>AIqMKuio</v>
       </c>
       <c r="B33" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C33" t="str">
-        <v>1SA0002520</v>
+        <v>1SA0003857</v>
       </c>
       <c r="D33" t="str">
         <v>10</v>
       </c>
       <c r="E33" t="str">
-        <v>1754</v>
+        <v>2311</v>
       </c>
       <c r="F33" t="str">
         <v>USD</v>
       </c>
       <c r="G33" t="str">
-        <v>1SA5000625</v>
+        <v>1SA5002225</v>
       </c>
       <c r="H33" t="str">
-        <v>yS3NM1Rq</v>
+        <v>gHXi7F2JC</v>
       </c>
       <c r="I33" t="str">
-        <v>1SA0002580</v>
+        <v>1SA0003966</v>
       </c>
       <c r="J33" t="str">
         <v>10</v>
       </c>
       <c r="K33" t="str">
-        <v>1339</v>
+        <v>1208</v>
       </c>
       <c r="L33" t="str">
         <v>USD</v>
       </c>
       <c r="M33" t="str">
-        <v>1339</v>
+        <v>1208</v>
       </c>
       <c r="N33" t="str">
         <v>SAC1</v>
@@ -2261,7 +2261,7 @@
         <v>JSON</v>
       </c>
       <c r="P33" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q33" t="str">
         <v>OneToMany</v>
@@ -2272,43 +2272,43 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>BmPQJru7</v>
+        <v>QBzpGnYs</v>
       </c>
       <c r="B34" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C34" t="str">
-        <v>1SA0002521</v>
+        <v>1SA0003858</v>
       </c>
       <c r="D34" t="str">
         <v>10</v>
       </c>
       <c r="E34" t="str">
-        <v>580</v>
+        <v>2186</v>
       </c>
       <c r="F34" t="str">
         <v>USD</v>
       </c>
       <c r="G34" t="str">
-        <v>1SA5000626</v>
+        <v>1SA5002226</v>
       </c>
       <c r="H34" t="str">
-        <v>BmPQJru7</v>
+        <v>QBzpGnYs</v>
       </c>
       <c r="I34" t="str">
-        <v>1SA0002581</v>
+        <v>1SA0003967</v>
       </c>
       <c r="J34" t="str">
         <v>10</v>
       </c>
       <c r="K34" t="str">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="L34" t="str">
         <v>USD</v>
       </c>
       <c r="M34" t="str">
-        <v>369</v>
+        <v>235</v>
       </c>
       <c r="N34" t="str">
         <v>SAC1</v>
@@ -2317,7 +2317,7 @@
         <v>JSON</v>
       </c>
       <c r="P34" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q34" t="str">
         <v>OneToMany</v>
@@ -2328,43 +2328,43 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>BmPQJru7</v>
+        <v>QBzpGnYs</v>
       </c>
       <c r="B35" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C35" t="str">
-        <v>1SA0002521</v>
+        <v>1SA0003858</v>
       </c>
       <c r="D35" t="str">
         <v>10</v>
       </c>
       <c r="E35" t="str">
-        <v>580</v>
+        <v>2186</v>
       </c>
       <c r="F35" t="str">
         <v>USD</v>
       </c>
       <c r="G35" t="str">
-        <v>1SA5000626</v>
+        <v>1SA5002226</v>
       </c>
       <c r="H35" t="str">
-        <v>BmPQJru7</v>
+        <v>QBzpGnYs</v>
       </c>
       <c r="I35" t="str">
-        <v>1SA0002582</v>
+        <v>1SA0003968</v>
       </c>
       <c r="J35" t="str">
         <v>10</v>
       </c>
       <c r="K35" t="str">
-        <v>292</v>
+        <v>1951</v>
       </c>
       <c r="L35" t="str">
         <v>USD</v>
       </c>
       <c r="M35" t="str">
-        <v>292</v>
+        <v>1951</v>
       </c>
       <c r="N35" t="str">
         <v>SAC1</v>
@@ -2373,7 +2373,7 @@
         <v>JSON</v>
       </c>
       <c r="P35" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q35" t="str">
         <v>OneToMany</v>
@@ -2384,43 +2384,43 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Nckz7ryU</v>
+        <v>Iq09klzZ</v>
       </c>
       <c r="B36" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C36" t="str">
-        <v>1SA0002522</v>
+        <v>1SA0003859</v>
       </c>
       <c r="D36" t="str">
         <v>10</v>
       </c>
       <c r="E36" t="str">
-        <v>1821</v>
+        <v>2103</v>
       </c>
       <c r="F36" t="str">
         <v>USD</v>
       </c>
       <c r="G36" t="str">
-        <v>1SA5000627</v>
+        <v>1SA5002227</v>
       </c>
       <c r="H36" t="str">
-        <v>Nckz7ryU</v>
+        <v>MWEWLRXqA</v>
       </c>
       <c r="I36" t="str">
-        <v>1SA0002583</v>
+        <v>1SA0003969</v>
       </c>
       <c r="J36" t="str">
         <v>10</v>
       </c>
       <c r="K36" t="str">
-        <v>120</v>
+        <v>2103</v>
       </c>
       <c r="L36" t="str">
         <v>USD</v>
       </c>
       <c r="M36" t="str">
-        <v>120</v>
+        <v>2103</v>
       </c>
       <c r="N36" t="str">
         <v>SAC1</v>
@@ -2429,54 +2429,54 @@
         <v>JSON</v>
       </c>
       <c r="P36" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q36" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R36" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Nckz7ryU</v>
+        <v>5dMAczOL</v>
       </c>
       <c r="B37" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C37" t="str">
-        <v>1SA0002522</v>
+        <v>1SA0003860</v>
       </c>
       <c r="D37" t="str">
         <v>10</v>
       </c>
       <c r="E37" t="str">
-        <v>1821</v>
+        <v>2099</v>
       </c>
       <c r="F37" t="str">
         <v>USD</v>
       </c>
       <c r="G37" t="str">
-        <v>1SA5000627</v>
+        <v>1SA5002228</v>
       </c>
       <c r="H37" t="str">
-        <v>Nckz7ryU</v>
+        <v>5dMAczOL</v>
       </c>
       <c r="I37" t="str">
-        <v>1SA0002584</v>
+        <v>1SA0003970</v>
       </c>
       <c r="J37" t="str">
         <v>10</v>
       </c>
       <c r="K37" t="str">
-        <v>2002</v>
+        <v>2391</v>
       </c>
       <c r="L37" t="str">
         <v>USD</v>
       </c>
       <c r="M37" t="str">
-        <v>2002</v>
+        <v>2391</v>
       </c>
       <c r="N37" t="str">
         <v>SAC1</v>
@@ -2488,51 +2488,51 @@
         <v>OverDelivery-Happy</v>
       </c>
       <c r="Q37" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R37" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>qOpCoF1U</v>
+        <v>4m5MYSEa</v>
       </c>
       <c r="B38" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C38" t="str">
-        <v>1SA0002523</v>
+        <v>1SA0003861</v>
       </c>
       <c r="D38" t="str">
         <v>10</v>
       </c>
       <c r="E38" t="str">
-        <v>501</v>
+        <v>1468</v>
       </c>
       <c r="F38" t="str">
         <v>USD</v>
       </c>
       <c r="G38" t="str">
-        <v>1SA5000628</v>
+        <v>1SA5002229</v>
       </c>
       <c r="H38" t="str">
-        <v>eTryrQYSB</v>
+        <v>4m5MYSEa</v>
       </c>
       <c r="I38" t="str">
-        <v>1SA0002585</v>
+        <v>1SA0003971</v>
       </c>
       <c r="J38" t="str">
         <v>10</v>
       </c>
       <c r="K38" t="str">
-        <v>663</v>
+        <v>1468</v>
       </c>
       <c r="L38" t="str">
         <v>USD</v>
       </c>
       <c r="M38" t="str">
-        <v>663</v>
+        <v>1468</v>
       </c>
       <c r="N38" t="str">
         <v>SAC1</v>
@@ -2541,7 +2541,7 @@
         <v>JSON</v>
       </c>
       <c r="P38" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q38" t="str">
         <v>OneToOne</v>
@@ -2552,43 +2552,43 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>whJfX2n8</v>
+        <v>ZRI4UnG1</v>
       </c>
       <c r="B39" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C39" t="str">
-        <v>1SA0002524</v>
+        <v>1SA0003862</v>
       </c>
       <c r="D39" t="str">
         <v>10</v>
       </c>
       <c r="E39" t="str">
-        <v>586</v>
+        <v>758</v>
       </c>
       <c r="F39" t="str">
         <v>USD</v>
       </c>
       <c r="G39" t="str">
-        <v>1SA5000629</v>
+        <v>1SA5002230</v>
       </c>
       <c r="H39" t="str">
-        <v>kBwJUrQLk</v>
+        <v>ZRI4UnG1</v>
       </c>
       <c r="I39" t="str">
-        <v>1SA0002586</v>
+        <v>1SA0003972</v>
       </c>
       <c r="J39" t="str">
         <v>10</v>
       </c>
       <c r="K39" t="str">
-        <v>898</v>
+        <v>1481</v>
       </c>
       <c r="L39" t="str">
         <v>USD</v>
       </c>
       <c r="M39" t="str">
-        <v>898</v>
+        <v>1481</v>
       </c>
       <c r="N39" t="str">
         <v>SAC1</v>
@@ -2597,7 +2597,7 @@
         <v>JSON</v>
       </c>
       <c r="P39" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q39" t="str">
         <v>OneToOne</v>
@@ -2608,43 +2608,43 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>putNz7l5</v>
+        <v>nTqbGmlW</v>
       </c>
       <c r="B40" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C40" t="str">
-        <v>1SA0002525</v>
+        <v>1SA0003863</v>
       </c>
       <c r="D40" t="str">
         <v>10</v>
       </c>
       <c r="E40" t="str">
-        <v>795</v>
+        <v>1260</v>
       </c>
       <c r="F40" t="str">
         <v>USD</v>
       </c>
       <c r="G40" t="str">
-        <v>1SA5000630</v>
+        <v>1SA5002231</v>
       </c>
       <c r="H40" t="str">
-        <v>putNz7l5</v>
+        <v>bMIcZH32L</v>
       </c>
       <c r="I40" t="str">
-        <v>1SA0002587</v>
+        <v>1SA0003973</v>
       </c>
       <c r="J40" t="str">
         <v>10</v>
       </c>
       <c r="K40" t="str">
-        <v>914</v>
+        <v>1854</v>
       </c>
       <c r="L40" t="str">
         <v>USD</v>
       </c>
       <c r="M40" t="str">
-        <v>914</v>
+        <v>1854</v>
       </c>
       <c r="N40" t="str">
         <v>SAC1</v>
@@ -2653,7 +2653,7 @@
         <v>JSON</v>
       </c>
       <c r="P40" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q40" t="str">
         <v>OneToOne</v>
@@ -2664,43 +2664,43 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>oYLXsc8m</v>
+        <v>RwBQaAXU</v>
       </c>
       <c r="B41" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C41" t="str">
-        <v>1SA0002526</v>
+        <v>1SA0003864</v>
       </c>
       <c r="D41" t="str">
         <v>10</v>
       </c>
       <c r="E41" t="str">
-        <v>1565</v>
+        <v>1421</v>
       </c>
       <c r="F41" t="str">
         <v>USD</v>
       </c>
       <c r="G41" t="str">
-        <v>1SA5000631</v>
+        <v>1SA5002232</v>
       </c>
       <c r="H41" t="str">
-        <v>oYLXsc8m</v>
+        <v>1aNnkicre</v>
       </c>
       <c r="I41" t="str">
-        <v>1SA0002588</v>
+        <v>1SA0003974</v>
       </c>
       <c r="J41" t="str">
         <v>10</v>
       </c>
       <c r="K41" t="str">
-        <v>603</v>
+        <v>2213</v>
       </c>
       <c r="L41" t="str">
         <v>USD</v>
       </c>
       <c r="M41" t="str">
-        <v>603</v>
+        <v>2213</v>
       </c>
       <c r="N41" t="str">
         <v>SAC1</v>
@@ -2709,54 +2709,54 @@
         <v>JSON</v>
       </c>
       <c r="P41" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q41" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R41" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>oYLXsc8m</v>
+        <v>yQoSbc2f</v>
       </c>
       <c r="B42" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C42" t="str">
-        <v>1SA0002526</v>
+        <v>1SA0003865</v>
       </c>
       <c r="D42" t="str">
         <v>10</v>
       </c>
       <c r="E42" t="str">
-        <v>1565</v>
+        <v>1115</v>
       </c>
       <c r="F42" t="str">
         <v>USD</v>
       </c>
       <c r="G42" t="str">
-        <v>1SA5000631</v>
+        <v>1SA5002233</v>
       </c>
       <c r="H42" t="str">
-        <v>oYLXsc8m</v>
+        <v>yQoSbc2f</v>
       </c>
       <c r="I42" t="str">
-        <v>1SA0002589</v>
+        <v>1SA0003975</v>
       </c>
       <c r="J42" t="str">
         <v>10</v>
       </c>
       <c r="K42" t="str">
-        <v>1141</v>
+        <v>1115</v>
       </c>
       <c r="L42" t="str">
         <v>USD</v>
       </c>
       <c r="M42" t="str">
-        <v>1141</v>
+        <v>1115</v>
       </c>
       <c r="N42" t="str">
         <v>SAC1</v>
@@ -2765,54 +2765,54 @@
         <v>JSON</v>
       </c>
       <c r="P42" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q42" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R42" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>QlRimLdP</v>
+        <v>Z2k0VEh9</v>
       </c>
       <c r="B43" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C43" t="str">
-        <v>1SA0002527</v>
+        <v>1SA0003866</v>
       </c>
       <c r="D43" t="str">
         <v>10</v>
       </c>
       <c r="E43" t="str">
-        <v>1708</v>
+        <v>2376</v>
       </c>
       <c r="F43" t="str">
         <v>USD</v>
       </c>
       <c r="G43" t="str">
-        <v>1SA5000632</v>
+        <v>1SA5002234</v>
       </c>
       <c r="H43" t="str">
-        <v>QlRimLdP</v>
+        <v>Z2k0VEh9</v>
       </c>
       <c r="I43" t="str">
-        <v>1SA0002590</v>
+        <v>1SA0003976</v>
       </c>
       <c r="J43" t="str">
         <v>10</v>
       </c>
       <c r="K43" t="str">
-        <v>140</v>
+        <v>2833</v>
       </c>
       <c r="L43" t="str">
         <v>USD</v>
       </c>
       <c r="M43" t="str">
-        <v>140</v>
+        <v>2833</v>
       </c>
       <c r="N43" t="str">
         <v>SAC1</v>
@@ -2824,51 +2824,51 @@
         <v>OverDelivery-Happy</v>
       </c>
       <c r="Q43" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R43" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>QlRimLdP</v>
+        <v>LgWVsJw3</v>
       </c>
       <c r="B44" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C44" t="str">
-        <v>1SA0002527</v>
+        <v>1SA0003867</v>
       </c>
       <c r="D44" t="str">
         <v>10</v>
       </c>
       <c r="E44" t="str">
-        <v>1708</v>
+        <v>554</v>
       </c>
       <c r="F44" t="str">
         <v>USD</v>
       </c>
       <c r="G44" t="str">
-        <v>1SA5000632</v>
+        <v>1SA5002235</v>
       </c>
       <c r="H44" t="str">
-        <v>QlRimLdP</v>
+        <v>LgWVsJw3</v>
       </c>
       <c r="I44" t="str">
-        <v>1SA0002591</v>
+        <v>1SA0003977</v>
       </c>
       <c r="J44" t="str">
         <v>10</v>
       </c>
       <c r="K44" t="str">
-        <v>1862</v>
+        <v>554</v>
       </c>
       <c r="L44" t="str">
         <v>USD</v>
       </c>
       <c r="M44" t="str">
-        <v>1862</v>
+        <v>554</v>
       </c>
       <c r="N44" t="str">
         <v>SAC1</v>
@@ -2877,54 +2877,54 @@
         <v>JSON</v>
       </c>
       <c r="P44" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q44" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R44" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>bF6n5SMG</v>
+        <v>TYI05aEp</v>
       </c>
       <c r="B45" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C45" t="str">
-        <v>1SA0002528</v>
+        <v>1SA0003868</v>
       </c>
       <c r="D45" t="str">
         <v>10</v>
       </c>
       <c r="E45" t="str">
-        <v>2456</v>
+        <v>2172</v>
       </c>
       <c r="F45" t="str">
         <v>USD</v>
       </c>
       <c r="G45" t="str">
-        <v>1SA5000633</v>
+        <v>1SA5002236</v>
       </c>
       <c r="H45" t="str">
-        <v>bF6n5SMG</v>
+        <v>TYI05aEp</v>
       </c>
       <c r="I45" t="str">
-        <v>1SA0002592</v>
+        <v>1SA0003978</v>
       </c>
       <c r="J45" t="str">
         <v>10</v>
       </c>
       <c r="K45" t="str">
-        <v>1014</v>
+        <v>782</v>
       </c>
       <c r="L45" t="str">
         <v>USD</v>
       </c>
       <c r="M45" t="str">
-        <v>1014</v>
+        <v>782</v>
       </c>
       <c r="N45" t="str">
         <v>SAC1</v>
@@ -2933,7 +2933,7 @@
         <v>JSON</v>
       </c>
       <c r="P45" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q45" t="str">
         <v>OneToMany</v>
@@ -2944,43 +2944,43 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>bF6n5SMG</v>
+        <v>TYI05aEp</v>
       </c>
       <c r="B46" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C46" t="str">
-        <v>1SA0002528</v>
+        <v>1SA0003868</v>
       </c>
       <c r="D46" t="str">
         <v>10</v>
       </c>
       <c r="E46" t="str">
-        <v>2456</v>
+        <v>2172</v>
       </c>
       <c r="F46" t="str">
         <v>USD</v>
       </c>
       <c r="G46" t="str">
-        <v>1SA5000633</v>
+        <v>1SA5002236</v>
       </c>
       <c r="H46" t="str">
-        <v>bF6n5SMG</v>
+        <v>TYI05aEp</v>
       </c>
       <c r="I46" t="str">
-        <v>1SA0002593</v>
+        <v>1SA0003979</v>
       </c>
       <c r="J46" t="str">
         <v>10</v>
       </c>
       <c r="K46" t="str">
-        <v>1758</v>
+        <v>1390</v>
       </c>
       <c r="L46" t="str">
         <v>USD</v>
       </c>
       <c r="M46" t="str">
-        <v>1758</v>
+        <v>1390</v>
       </c>
       <c r="N46" t="str">
         <v>SAC1</v>
@@ -2989,7 +2989,7 @@
         <v>JSON</v>
       </c>
       <c r="P46" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q46" t="str">
         <v>OneToMany</v>
@@ -3000,43 +3000,43 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>WIGQMpEa</v>
+        <v>sJ190Vob</v>
       </c>
       <c r="B47" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C47" t="str">
-        <v>1SA0002529</v>
+        <v>1SA0003869</v>
       </c>
       <c r="D47" t="str">
         <v>10</v>
       </c>
       <c r="E47" t="str">
-        <v>1321</v>
+        <v>984</v>
       </c>
       <c r="F47" t="str">
         <v>USD</v>
       </c>
       <c r="G47" t="str">
-        <v>1SA5000634</v>
+        <v>1SA5002237</v>
       </c>
       <c r="H47" t="str">
-        <v>tgvHQHQk3</v>
+        <v>aaj5hk6Lb</v>
       </c>
       <c r="I47" t="str">
-        <v>1SA0002594</v>
+        <v>1SA0003980</v>
       </c>
       <c r="J47" t="str">
         <v>10</v>
       </c>
       <c r="K47" t="str">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="L47" t="str">
         <v>USD</v>
       </c>
       <c r="M47" t="str">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="N47" t="str">
         <v>SAC1</v>
@@ -3056,43 +3056,43 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>WIGQMpEa</v>
+        <v>sJ190Vob</v>
       </c>
       <c r="B48" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C48" t="str">
-        <v>1SA0002529</v>
+        <v>1SA0003869</v>
       </c>
       <c r="D48" t="str">
         <v>10</v>
       </c>
       <c r="E48" t="str">
-        <v>1321</v>
+        <v>984</v>
       </c>
       <c r="F48" t="str">
         <v>USD</v>
       </c>
       <c r="G48" t="str">
-        <v>1SA5000634</v>
+        <v>1SA5002237</v>
       </c>
       <c r="H48" t="str">
-        <v>osdac5R8e</v>
+        <v>hqCDGNb2K</v>
       </c>
       <c r="I48" t="str">
-        <v>1SA0002595</v>
+        <v>1SA0003981</v>
       </c>
       <c r="J48" t="str">
         <v>10</v>
       </c>
       <c r="K48" t="str">
-        <v>1195</v>
+        <v>800</v>
       </c>
       <c r="L48" t="str">
         <v>USD</v>
       </c>
       <c r="M48" t="str">
-        <v>1195</v>
+        <v>800</v>
       </c>
       <c r="N48" t="str">
         <v>SAC1</v>
@@ -3112,43 +3112,43 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>CNwQ09JS</v>
+        <v>RmV7TW2J</v>
       </c>
       <c r="B49" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C49" t="str">
-        <v>1SA0002530</v>
+        <v>1SA0003870</v>
       </c>
       <c r="D49" t="str">
         <v>10</v>
       </c>
       <c r="E49" t="str">
-        <v>1454</v>
+        <v>961</v>
       </c>
       <c r="F49" t="str">
         <v>USD</v>
       </c>
       <c r="G49" t="str">
-        <v>1SA5000635</v>
+        <v>1SA5002238</v>
       </c>
       <c r="H49" t="str">
-        <v>RRligUK90</v>
+        <v>RmV7TW2J</v>
       </c>
       <c r="I49" t="str">
-        <v>1SA0002596</v>
+        <v>1SA0003982</v>
       </c>
       <c r="J49" t="str">
         <v>10</v>
       </c>
       <c r="K49" t="str">
-        <v>1454</v>
+        <v>961</v>
       </c>
       <c r="L49" t="str">
         <v>USD</v>
       </c>
       <c r="M49" t="str">
-        <v>1454</v>
+        <v>961</v>
       </c>
       <c r="N49" t="str">
         <v>SAC1</v>
@@ -3157,7 +3157,7 @@
         <v>JSON</v>
       </c>
       <c r="P49" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q49" t="str">
         <v>OneToOne</v>
@@ -3168,43 +3168,43 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>3ApS6uyf</v>
+        <v>teSpa418</v>
       </c>
       <c r="B50" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C50" t="str">
-        <v>1SA0002531</v>
+        <v>1SA0003871</v>
       </c>
       <c r="D50" t="str">
         <v>10</v>
       </c>
       <c r="E50" t="str">
-        <v>1260</v>
+        <v>1477</v>
       </c>
       <c r="F50" t="str">
         <v>USD</v>
       </c>
       <c r="G50" t="str">
-        <v>1SA5000636</v>
+        <v>1SA5002239</v>
       </c>
       <c r="H50" t="str">
-        <v>3ApS6uyf</v>
+        <v>teSpa418</v>
       </c>
       <c r="I50" t="str">
-        <v>1SA0002597</v>
+        <v>1SA0003983</v>
       </c>
       <c r="J50" t="str">
         <v>10</v>
       </c>
       <c r="K50" t="str">
-        <v>165</v>
+        <v>2120</v>
       </c>
       <c r="L50" t="str">
         <v>USD</v>
       </c>
       <c r="M50" t="str">
-        <v>165</v>
+        <v>2120</v>
       </c>
       <c r="N50" t="str">
         <v>SAC1</v>
@@ -3213,54 +3213,54 @@
         <v>JSON</v>
       </c>
       <c r="P50" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q50" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R50" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>3ApS6uyf</v>
+        <v>kmegKN5L</v>
       </c>
       <c r="B51" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C51" t="str">
-        <v>1SA0002531</v>
+        <v>1SA0003872</v>
       </c>
       <c r="D51" t="str">
         <v>10</v>
       </c>
       <c r="E51" t="str">
-        <v>1260</v>
+        <v>1404</v>
       </c>
       <c r="F51" t="str">
         <v>USD</v>
       </c>
       <c r="G51" t="str">
-        <v>1SA5000636</v>
+        <v>1SA5002240</v>
       </c>
       <c r="H51" t="str">
-        <v>3ApS6uyf</v>
+        <v>fxIiSfC6X</v>
       </c>
       <c r="I51" t="str">
-        <v>1SA0002598</v>
+        <v>1SA0003984</v>
       </c>
       <c r="J51" t="str">
         <v>10</v>
       </c>
       <c r="K51" t="str">
-        <v>1095</v>
+        <v>64</v>
       </c>
       <c r="L51" t="str">
         <v>USD</v>
       </c>
       <c r="M51" t="str">
-        <v>1095</v>
+        <v>64</v>
       </c>
       <c r="N51" t="str">
         <v>SAC1</v>
@@ -3269,7 +3269,7 @@
         <v>JSON</v>
       </c>
       <c r="P51" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q51" t="str">
         <v>OneToMany</v>
@@ -3280,43 +3280,43 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>5MVkJtKo</v>
+        <v>kmegKN5L</v>
       </c>
       <c r="B52" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C52" t="str">
-        <v>1SA0002532</v>
+        <v>1SA0003872</v>
       </c>
       <c r="D52" t="str">
         <v>10</v>
       </c>
       <c r="E52" t="str">
-        <v>1447</v>
+        <v>1404</v>
       </c>
       <c r="F52" t="str">
         <v>USD</v>
       </c>
       <c r="G52" t="str">
-        <v>1SA5000637</v>
+        <v>1SA5002240</v>
       </c>
       <c r="H52" t="str">
-        <v>5MVkJtKo</v>
+        <v>kCtxYwTYS</v>
       </c>
       <c r="I52" t="str">
-        <v>1SA0002599</v>
+        <v>1SA0003985</v>
       </c>
       <c r="J52" t="str">
         <v>10</v>
       </c>
       <c r="K52" t="str">
-        <v>2021</v>
+        <v>1770</v>
       </c>
       <c r="L52" t="str">
         <v>USD</v>
       </c>
       <c r="M52" t="str">
-        <v>2021</v>
+        <v>1770</v>
       </c>
       <c r="N52" t="str">
         <v>SAC1</v>
@@ -3325,54 +3325,54 @@
         <v>JSON</v>
       </c>
       <c r="P52" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>OverDelivery-DiffPrepayment</v>
       </c>
       <c r="Q52" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R52" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2jN6ytLP</v>
+        <v>JY6cgdzn</v>
       </c>
       <c r="B53" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C53" t="str">
-        <v>1SA0002533</v>
+        <v>1SA0003873</v>
       </c>
       <c r="D53" t="str">
         <v>10</v>
       </c>
       <c r="E53" t="str">
-        <v>1760</v>
+        <v>1326</v>
       </c>
       <c r="F53" t="str">
         <v>USD</v>
       </c>
       <c r="G53" t="str">
-        <v>1SA5000638</v>
+        <v>1SA5002241</v>
       </c>
       <c r="H53" t="str">
-        <v>2jN6ytLP</v>
+        <v>B2jhdXwCl</v>
       </c>
       <c r="I53" t="str">
-        <v>1SA0002600</v>
+        <v>1SA0003986</v>
       </c>
       <c r="J53" t="str">
         <v>10</v>
       </c>
       <c r="K53" t="str">
-        <v>1760</v>
+        <v>123</v>
       </c>
       <c r="L53" t="str">
         <v>USD</v>
       </c>
       <c r="M53" t="str">
-        <v>1760</v>
+        <v>123</v>
       </c>
       <c r="N53" t="str">
         <v>SAC1</v>
@@ -3381,54 +3381,54 @@
         <v>JSON</v>
       </c>
       <c r="P53" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q53" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R53" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>8MFDUPmN</v>
+        <v>JY6cgdzn</v>
       </c>
       <c r="B54" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C54" t="str">
-        <v>1SA0002534</v>
+        <v>1SA0003873</v>
       </c>
       <c r="D54" t="str">
         <v>10</v>
       </c>
       <c r="E54" t="str">
-        <v>2357</v>
+        <v>1326</v>
       </c>
       <c r="F54" t="str">
         <v>USD</v>
       </c>
       <c r="G54" t="str">
-        <v>1SA5000639</v>
+        <v>1SA5002241</v>
       </c>
       <c r="H54" t="str">
-        <v>8MFDUPmN</v>
+        <v>3ojFrpmtM</v>
       </c>
       <c r="I54" t="str">
-        <v>1SA0002601</v>
+        <v>1SA0003987</v>
       </c>
       <c r="J54" t="str">
         <v>10</v>
       </c>
       <c r="K54" t="str">
-        <v>2357</v>
+        <v>1203</v>
       </c>
       <c r="L54" t="str">
         <v>USD</v>
       </c>
       <c r="M54" t="str">
-        <v>2357</v>
+        <v>1203</v>
       </c>
       <c r="N54" t="str">
         <v>SAC1</v>
@@ -3437,54 +3437,54 @@
         <v>JSON</v>
       </c>
       <c r="P54" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q54" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R54" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>JWf1rdkv</v>
+        <v>QlDcYTwM</v>
       </c>
       <c r="B55" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C55" t="str">
-        <v>1SA0002535</v>
+        <v>1SA0003874</v>
       </c>
       <c r="D55" t="str">
         <v>10</v>
       </c>
       <c r="E55" t="str">
-        <v>1939</v>
+        <v>557</v>
       </c>
       <c r="F55" t="str">
         <v>USD</v>
       </c>
       <c r="G55" t="str">
-        <v>1SA5000640</v>
+        <v>1SA5002242</v>
       </c>
       <c r="H55" t="str">
-        <v>JWf1rdkv</v>
+        <v>QlDcYTwM</v>
       </c>
       <c r="I55" t="str">
-        <v>1SA0002602</v>
+        <v>1SA0003988</v>
       </c>
       <c r="J55" t="str">
         <v>10</v>
       </c>
       <c r="K55" t="str">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="L55" t="str">
         <v>USD</v>
       </c>
       <c r="M55" t="str">
-        <v>578</v>
+        <v>79</v>
       </c>
       <c r="N55" t="str">
         <v>SAC1</v>
@@ -3493,7 +3493,7 @@
         <v>JSON</v>
       </c>
       <c r="P55" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q55" t="str">
         <v>OneToMany</v>
@@ -3504,43 +3504,43 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>JWf1rdkv</v>
+        <v>QlDcYTwM</v>
       </c>
       <c r="B56" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C56" t="str">
-        <v>1SA0002535</v>
+        <v>1SA0003874</v>
       </c>
       <c r="D56" t="str">
         <v>10</v>
       </c>
       <c r="E56" t="str">
-        <v>1939</v>
+        <v>557</v>
       </c>
       <c r="F56" t="str">
         <v>USD</v>
       </c>
       <c r="G56" t="str">
-        <v>1SA5000640</v>
+        <v>1SA5002242</v>
       </c>
       <c r="H56" t="str">
-        <v>JWf1rdkv</v>
+        <v>QlDcYTwM</v>
       </c>
       <c r="I56" t="str">
-        <v>1SA0002603</v>
+        <v>1SA0003989</v>
       </c>
       <c r="J56" t="str">
         <v>10</v>
       </c>
       <c r="K56" t="str">
-        <v>1361</v>
+        <v>871</v>
       </c>
       <c r="L56" t="str">
         <v>USD</v>
       </c>
       <c r="M56" t="str">
-        <v>1361</v>
+        <v>871</v>
       </c>
       <c r="N56" t="str">
         <v>SAC1</v>
@@ -3549,7 +3549,7 @@
         <v>JSON</v>
       </c>
       <c r="P56" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q56" t="str">
         <v>OneToMany</v>
@@ -3560,43 +3560,43 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>aSnueHZB</v>
+        <v>NGUj0EpF</v>
       </c>
       <c r="B57" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C57" t="str">
-        <v>1SA0002536</v>
+        <v>1SA0003875</v>
       </c>
       <c r="D57" t="str">
         <v>10</v>
       </c>
       <c r="E57" t="str">
-        <v>2061</v>
+        <v>640</v>
       </c>
       <c r="F57" t="str">
         <v>USD</v>
       </c>
       <c r="G57" t="str">
-        <v>1SA5000641</v>
+        <v>1SA5002243</v>
       </c>
       <c r="H57" t="str">
-        <v>aSnueHZB</v>
+        <v>NGUj0EpF</v>
       </c>
       <c r="I57" t="str">
-        <v>1SA0002604</v>
+        <v>1SA0003990</v>
       </c>
       <c r="J57" t="str">
         <v>10</v>
       </c>
       <c r="K57" t="str">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="L57" t="str">
         <v>USD</v>
       </c>
       <c r="M57" t="str">
-        <v>429</v>
+        <v>200</v>
       </c>
       <c r="N57" t="str">
         <v>SAC1</v>
@@ -3605,7 +3605,7 @@
         <v>JSON</v>
       </c>
       <c r="P57" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q57" t="str">
         <v>OneToMany</v>
@@ -3616,43 +3616,43 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>aSnueHZB</v>
+        <v>NGUj0EpF</v>
       </c>
       <c r="B58" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C58" t="str">
-        <v>1SA0002536</v>
+        <v>1SA0003875</v>
       </c>
       <c r="D58" t="str">
         <v>10</v>
       </c>
       <c r="E58" t="str">
-        <v>2061</v>
+        <v>640</v>
       </c>
       <c r="F58" t="str">
         <v>USD</v>
       </c>
       <c r="G58" t="str">
-        <v>1SA5000641</v>
+        <v>1SA5002243</v>
       </c>
       <c r="H58" t="str">
-        <v>aSnueHZB</v>
+        <v>NGUj0EpF</v>
       </c>
       <c r="I58" t="str">
-        <v>1SA0002605</v>
+        <v>1SA0003991</v>
       </c>
       <c r="J58" t="str">
         <v>10</v>
       </c>
       <c r="K58" t="str">
-        <v>1632</v>
+        <v>564</v>
       </c>
       <c r="L58" t="str">
         <v>USD</v>
       </c>
       <c r="M58" t="str">
-        <v>1632</v>
+        <v>564</v>
       </c>
       <c r="N58" t="str">
         <v>SAC1</v>
@@ -3661,7 +3661,7 @@
         <v>JSON</v>
       </c>
       <c r="P58" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q58" t="str">
         <v>OneToMany</v>
@@ -3672,43 +3672,43 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>tRAPzUZq</v>
+        <v>z5VnUbdR</v>
       </c>
       <c r="B59" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C59" t="str">
-        <v>1SA0002537</v>
+        <v>1SA0003876</v>
       </c>
       <c r="D59" t="str">
         <v>10</v>
       </c>
       <c r="E59" t="str">
-        <v>1141</v>
+        <v>2357</v>
       </c>
       <c r="F59" t="str">
         <v>USD</v>
       </c>
       <c r="G59" t="str">
-        <v>1SA5000642</v>
+        <v>1SA5002244</v>
       </c>
       <c r="H59" t="str">
-        <v>tRAPzUZq</v>
+        <v>z5VnUbdR</v>
       </c>
       <c r="I59" t="str">
-        <v>1SA0002606</v>
+        <v>1SA0003992</v>
       </c>
       <c r="J59" t="str">
         <v>10</v>
       </c>
       <c r="K59" t="str">
-        <v>313</v>
+        <v>1251</v>
       </c>
       <c r="L59" t="str">
         <v>USD</v>
       </c>
       <c r="M59" t="str">
-        <v>313</v>
+        <v>1251</v>
       </c>
       <c r="N59" t="str">
         <v>SAC1</v>
@@ -3717,7 +3717,7 @@
         <v>JSON</v>
       </c>
       <c r="P59" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q59" t="str">
         <v>OneToMany</v>
@@ -3728,43 +3728,43 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>tRAPzUZq</v>
+        <v>z5VnUbdR</v>
       </c>
       <c r="B60" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C60" t="str">
-        <v>1SA0002537</v>
+        <v>1SA0003876</v>
       </c>
       <c r="D60" t="str">
         <v>10</v>
       </c>
       <c r="E60" t="str">
-        <v>1141</v>
+        <v>2357</v>
       </c>
       <c r="F60" t="str">
         <v>USD</v>
       </c>
       <c r="G60" t="str">
-        <v>1SA5000642</v>
+        <v>1SA5002244</v>
       </c>
       <c r="H60" t="str">
-        <v>tRAPzUZq</v>
+        <v>z5VnUbdR</v>
       </c>
       <c r="I60" t="str">
-        <v>1SA0002607</v>
+        <v>1SA0003993</v>
       </c>
       <c r="J60" t="str">
         <v>10</v>
       </c>
       <c r="K60" t="str">
-        <v>828</v>
+        <v>1120</v>
       </c>
       <c r="L60" t="str">
         <v>USD</v>
       </c>
       <c r="M60" t="str">
-        <v>828</v>
+        <v>1120</v>
       </c>
       <c r="N60" t="str">
         <v>SAC1</v>
@@ -3773,7 +3773,7 @@
         <v>JSON</v>
       </c>
       <c r="P60" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q60" t="str">
         <v>OneToMany</v>
@@ -3784,43 +3784,43 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>iEqNyu4o</v>
+        <v>Yqcyf5wE</v>
       </c>
       <c r="B61" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C61" t="str">
-        <v>1SA0002538</v>
+        <v>1SA0003877</v>
       </c>
       <c r="D61" t="str">
         <v>10</v>
       </c>
       <c r="E61" t="str">
-        <v>1855</v>
+        <v>1112</v>
       </c>
       <c r="F61" t="str">
         <v>USD</v>
       </c>
       <c r="G61" t="str">
-        <v>1SA5000643</v>
+        <v>1SA5002245</v>
       </c>
       <c r="H61" t="str">
-        <v>XLgrANstM</v>
+        <v>Yqcyf5wE</v>
       </c>
       <c r="I61" t="str">
-        <v>1SA0002608</v>
+        <v>1SA0003994</v>
       </c>
       <c r="J61" t="str">
         <v>10</v>
       </c>
       <c r="K61" t="str">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="L61" t="str">
         <v>USD</v>
       </c>
       <c r="M61" t="str">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="N61" t="str">
         <v>SAC1</v>
@@ -3829,7 +3829,7 @@
         <v>JSON</v>
       </c>
       <c r="P61" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q61" t="str">
         <v>OneToMany</v>
@@ -3840,43 +3840,43 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>iEqNyu4o</v>
+        <v>Yqcyf5wE</v>
       </c>
       <c r="B62" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C62" t="str">
-        <v>1SA0002538</v>
+        <v>1SA0003877</v>
       </c>
       <c r="D62" t="str">
         <v>10</v>
       </c>
       <c r="E62" t="str">
-        <v>1855</v>
+        <v>1112</v>
       </c>
       <c r="F62" t="str">
         <v>USD</v>
       </c>
       <c r="G62" t="str">
-        <v>1SA5000643</v>
+        <v>1SA5002245</v>
       </c>
       <c r="H62" t="str">
-        <v>MUN85LRd1</v>
+        <v>Yqcyf5wE</v>
       </c>
       <c r="I62" t="str">
-        <v>1SA0002609</v>
+        <v>1SA0003995</v>
       </c>
       <c r="J62" t="str">
         <v>10</v>
       </c>
       <c r="K62" t="str">
-        <v>1548</v>
+        <v>921</v>
       </c>
       <c r="L62" t="str">
         <v>USD</v>
       </c>
       <c r="M62" t="str">
-        <v>1548</v>
+        <v>921</v>
       </c>
       <c r="N62" t="str">
         <v>SAC1</v>
@@ -3885,7 +3885,7 @@
         <v>JSON</v>
       </c>
       <c r="P62" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q62" t="str">
         <v>OneToMany</v>
@@ -3896,43 +3896,43 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>nfRSTme9</v>
+        <v>b8TmjxnJ</v>
       </c>
       <c r="B63" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C63" t="str">
-        <v>1SA0002539</v>
+        <v>1SA0003878</v>
       </c>
       <c r="D63" t="str">
         <v>10</v>
       </c>
       <c r="E63" t="str">
-        <v>1331</v>
+        <v>1493</v>
       </c>
       <c r="F63" t="str">
         <v>USD</v>
       </c>
       <c r="G63" t="str">
-        <v>1SA5000644</v>
+        <v>1SA5002246</v>
       </c>
       <c r="H63" t="str">
-        <v>3wMWRhDkV</v>
+        <v>b8TmjxnJ</v>
       </c>
       <c r="I63" t="str">
-        <v>1SA0002610</v>
+        <v>1SA0003996</v>
       </c>
       <c r="J63" t="str">
         <v>10</v>
       </c>
       <c r="K63" t="str">
-        <v>475</v>
+        <v>583</v>
       </c>
       <c r="L63" t="str">
         <v>USD</v>
       </c>
       <c r="M63" t="str">
-        <v>475</v>
+        <v>583</v>
       </c>
       <c r="N63" t="str">
         <v>SAC1</v>
@@ -3941,7 +3941,7 @@
         <v>JSON</v>
       </c>
       <c r="P63" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q63" t="str">
         <v>OneToMany</v>
@@ -3952,43 +3952,43 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>nfRSTme9</v>
+        <v>b8TmjxnJ</v>
       </c>
       <c r="B64" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C64" t="str">
-        <v>1SA0002539</v>
+        <v>1SA0003878</v>
       </c>
       <c r="D64" t="str">
         <v>10</v>
       </c>
       <c r="E64" t="str">
-        <v>1331</v>
+        <v>1493</v>
       </c>
       <c r="F64" t="str">
         <v>USD</v>
       </c>
       <c r="G64" t="str">
-        <v>1SA5000644</v>
+        <v>1SA5002246</v>
       </c>
       <c r="H64" t="str">
-        <v>nfJPPKmOQ</v>
+        <v>b8TmjxnJ</v>
       </c>
       <c r="I64" t="str">
-        <v>1SA0002611</v>
+        <v>1SA0003997</v>
       </c>
       <c r="J64" t="str">
         <v>10</v>
       </c>
       <c r="K64" t="str">
-        <v>1332</v>
+        <v>1271</v>
       </c>
       <c r="L64" t="str">
         <v>USD</v>
       </c>
       <c r="M64" t="str">
-        <v>1332</v>
+        <v>1271</v>
       </c>
       <c r="N64" t="str">
         <v>SAC1</v>
@@ -3997,7 +3997,7 @@
         <v>JSON</v>
       </c>
       <c r="P64" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q64" t="str">
         <v>OneToMany</v>
@@ -4008,43 +4008,43 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>kJC936MR</v>
+        <v>up8x3iB9</v>
       </c>
       <c r="B65" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C65" t="str">
-        <v>1SA0002540</v>
+        <v>1SA0003879</v>
       </c>
       <c r="D65" t="str">
         <v>10</v>
       </c>
       <c r="E65" t="str">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="F65" t="str">
         <v>USD</v>
       </c>
       <c r="G65" t="str">
-        <v>1SA5000645</v>
+        <v>1SA5002247</v>
       </c>
       <c r="H65" t="str">
-        <v>kJC936MR</v>
+        <v>up8x3iB9</v>
       </c>
       <c r="I65" t="str">
-        <v>1SA0002612</v>
+        <v>1SA0003998</v>
       </c>
       <c r="J65" t="str">
         <v>10</v>
       </c>
       <c r="K65" t="str">
-        <v>1661</v>
+        <v>163</v>
       </c>
       <c r="L65" t="str">
         <v>USD</v>
       </c>
       <c r="M65" t="str">
-        <v>1661</v>
+        <v>163</v>
       </c>
       <c r="N65" t="str">
         <v>SAC1</v>
@@ -4056,51 +4056,51 @@
         <v>OverDelivery-Happy</v>
       </c>
       <c r="Q65" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R65" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>u0Szd1Er</v>
+        <v>up8x3iB9</v>
       </c>
       <c r="B66" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C66" t="str">
-        <v>1SA0002541</v>
+        <v>1SA0003879</v>
       </c>
       <c r="D66" t="str">
         <v>10</v>
       </c>
       <c r="E66" t="str">
-        <v>929</v>
+        <v>1182</v>
       </c>
       <c r="F66" t="str">
         <v>USD</v>
       </c>
       <c r="G66" t="str">
-        <v>1SA5000646</v>
+        <v>1SA5002247</v>
       </c>
       <c r="H66" t="str">
-        <v>Pmj6ee0iW</v>
+        <v>up8x3iB9</v>
       </c>
       <c r="I66" t="str">
-        <v>1SA0002613</v>
+        <v>1SA0003999</v>
       </c>
       <c r="J66" t="str">
         <v>10</v>
       </c>
       <c r="K66" t="str">
-        <v>513</v>
+        <v>1280</v>
       </c>
       <c r="L66" t="str">
         <v>USD</v>
       </c>
       <c r="M66" t="str">
-        <v>513</v>
+        <v>1280</v>
       </c>
       <c r="N66" t="str">
         <v>SAC1</v>
@@ -4109,7 +4109,7 @@
         <v>JSON</v>
       </c>
       <c r="P66" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q66" t="str">
         <v>OneToMany</v>
@@ -4120,43 +4120,43 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>u0Szd1Er</v>
+        <v>zgpq32ne</v>
       </c>
       <c r="B67" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C67" t="str">
-        <v>1SA0002541</v>
+        <v>1SA0003880</v>
       </c>
       <c r="D67" t="str">
         <v>10</v>
       </c>
       <c r="E67" t="str">
-        <v>929</v>
+        <v>2266</v>
       </c>
       <c r="F67" t="str">
         <v>USD</v>
       </c>
       <c r="G67" t="str">
-        <v>1SA5000646</v>
+        <v>1SA5002248</v>
       </c>
       <c r="H67" t="str">
-        <v>TbL5Rs7zz</v>
+        <v>zgpq32ne</v>
       </c>
       <c r="I67" t="str">
-        <v>1SA0002614</v>
+        <v>1SA0004000</v>
       </c>
       <c r="J67" t="str">
         <v>10</v>
       </c>
       <c r="K67" t="str">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="L67" t="str">
         <v>USD</v>
       </c>
       <c r="M67" t="str">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="N67" t="str">
         <v>SAC1</v>
@@ -4165,7 +4165,7 @@
         <v>JSON</v>
       </c>
       <c r="P67" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q67" t="str">
         <v>OneToMany</v>
@@ -4176,43 +4176,43 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>qlxeELi5</v>
+        <v>zgpq32ne</v>
       </c>
       <c r="B68" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C68" t="str">
-        <v>1SA0002542</v>
+        <v>1SA0003880</v>
       </c>
       <c r="D68" t="str">
         <v>10</v>
       </c>
       <c r="E68" t="str">
-        <v>1032</v>
+        <v>2266</v>
       </c>
       <c r="F68" t="str">
         <v>USD</v>
       </c>
       <c r="G68" t="str">
-        <v>1SA5000647</v>
+        <v>1SA5002248</v>
       </c>
       <c r="H68" t="str">
-        <v>qlxeELi5</v>
+        <v>zgpq32ne</v>
       </c>
       <c r="I68" t="str">
-        <v>1SA0002615</v>
+        <v>1SA0004001</v>
       </c>
       <c r="J68" t="str">
         <v>10</v>
       </c>
       <c r="K68" t="str">
-        <v>1221</v>
+        <v>1670</v>
       </c>
       <c r="L68" t="str">
         <v>USD</v>
       </c>
       <c r="M68" t="str">
-        <v>1221</v>
+        <v>1670</v>
       </c>
       <c r="N68" t="str">
         <v>SAC1</v>
@@ -4221,54 +4221,54 @@
         <v>JSON</v>
       </c>
       <c r="P68" t="str">
-        <v>OverDelivery-Happy</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q68" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R68" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>iXRA0tp1</v>
+        <v>RMXECcvy</v>
       </c>
       <c r="B69" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C69" t="str">
-        <v>1SA0002543</v>
+        <v>1SA0003881</v>
       </c>
       <c r="D69" t="str">
         <v>10</v>
       </c>
       <c r="E69" t="str">
-        <v>1217</v>
+        <v>1973</v>
       </c>
       <c r="F69" t="str">
         <v>USD</v>
       </c>
       <c r="G69" t="str">
-        <v>1SA5000648</v>
+        <v>1SA5002249</v>
       </c>
       <c r="H69" t="str">
-        <v>gop5XZs94</v>
+        <v>RMXECcvy</v>
       </c>
       <c r="I69" t="str">
-        <v>1SA0002616</v>
+        <v>1SA0004002</v>
       </c>
       <c r="J69" t="str">
         <v>10</v>
       </c>
       <c r="K69" t="str">
-        <v>1217</v>
+        <v>787</v>
       </c>
       <c r="L69" t="str">
         <v>USD</v>
       </c>
       <c r="M69" t="str">
-        <v>1217</v>
+        <v>787</v>
       </c>
       <c r="N69" t="str">
         <v>SAC1</v>
@@ -4277,54 +4277,54 @@
         <v>JSON</v>
       </c>
       <c r="P69" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q69" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R69" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>1yzZdmWn</v>
+        <v>RMXECcvy</v>
       </c>
       <c r="B70" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C70" t="str">
-        <v>1SA0002544</v>
+        <v>1SA0003881</v>
       </c>
       <c r="D70" t="str">
         <v>10</v>
       </c>
       <c r="E70" t="str">
-        <v>561</v>
+        <v>1973</v>
       </c>
       <c r="F70" t="str">
         <v>USD</v>
       </c>
       <c r="G70" t="str">
-        <v>1SA5000649</v>
+        <v>1SA5002249</v>
       </c>
       <c r="H70" t="str">
-        <v>hLe89TOJe</v>
+        <v>RMXECcvy</v>
       </c>
       <c r="I70" t="str">
-        <v>1SA0002617</v>
+        <v>1SA0004003</v>
       </c>
       <c r="J70" t="str">
         <v>10</v>
       </c>
       <c r="K70" t="str">
-        <v>260</v>
+        <v>1186</v>
       </c>
       <c r="L70" t="str">
         <v>USD</v>
       </c>
       <c r="M70" t="str">
-        <v>260</v>
+        <v>1186</v>
       </c>
       <c r="N70" t="str">
         <v>SAC1</v>
@@ -4333,7 +4333,7 @@
         <v>JSON</v>
       </c>
       <c r="P70" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q70" t="str">
         <v>OneToMany</v>
@@ -4344,43 +4344,43 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>1yzZdmWn</v>
+        <v>ixPoHkSX</v>
       </c>
       <c r="B71" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C71" t="str">
-        <v>1SA0002544</v>
+        <v>1SA0003882</v>
       </c>
       <c r="D71" t="str">
         <v>10</v>
       </c>
       <c r="E71" t="str">
-        <v>561</v>
+        <v>820</v>
       </c>
       <c r="F71" t="str">
         <v>USD</v>
       </c>
       <c r="G71" t="str">
-        <v>1SA5000649</v>
+        <v>1SA5002250</v>
       </c>
       <c r="H71" t="str">
-        <v>74vSz0Eom</v>
+        <v>ixPoHkSX</v>
       </c>
       <c r="I71" t="str">
-        <v>1SA0002618</v>
+        <v>1SA0004004</v>
       </c>
       <c r="J71" t="str">
         <v>10</v>
       </c>
       <c r="K71" t="str">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="L71" t="str">
         <v>USD</v>
       </c>
       <c r="M71" t="str">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="N71" t="str">
         <v>SAC1</v>
@@ -4389,7 +4389,7 @@
         <v>JSON</v>
       </c>
       <c r="P71" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q71" t="str">
         <v>OneToMany</v>
@@ -4400,43 +4400,43 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>mUE2F1by</v>
+        <v>ixPoHkSX</v>
       </c>
       <c r="B72" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C72" t="str">
-        <v>1SA0002545</v>
+        <v>1SA0003882</v>
       </c>
       <c r="D72" t="str">
         <v>10</v>
       </c>
       <c r="E72" t="str">
-        <v>1584</v>
+        <v>820</v>
       </c>
       <c r="F72" t="str">
         <v>USD</v>
       </c>
       <c r="G72" t="str">
-        <v>1SA5000650</v>
+        <v>1SA5002250</v>
       </c>
       <c r="H72" t="str">
-        <v>tnqbc0KQ6</v>
+        <v>ixPoHkSX</v>
       </c>
       <c r="I72" t="str">
-        <v>1SA0002619</v>
+        <v>1SA0004005</v>
       </c>
       <c r="J72" t="str">
         <v>10</v>
       </c>
       <c r="K72" t="str">
-        <v>1584</v>
+        <v>741</v>
       </c>
       <c r="L72" t="str">
         <v>USD</v>
       </c>
       <c r="M72" t="str">
-        <v>1584</v>
+        <v>741</v>
       </c>
       <c r="N72" t="str">
         <v>SAC1</v>
@@ -4445,54 +4445,54 @@
         <v>JSON</v>
       </c>
       <c r="P72" t="str">
-        <v>UnderDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-Happy</v>
       </c>
       <c r="Q72" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R72" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>B5DeK9to</v>
+        <v>lnaBjG0P</v>
       </c>
       <c r="B73" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C73" t="str">
-        <v>1SA0002546</v>
+        <v>1SA0003883</v>
       </c>
       <c r="D73" t="str">
         <v>10</v>
       </c>
       <c r="E73" t="str">
-        <v>2158</v>
+        <v>2083</v>
       </c>
       <c r="F73" t="str">
         <v>USD</v>
       </c>
       <c r="G73" t="str">
-        <v>1SA5000651</v>
+        <v>1SA5002251</v>
       </c>
       <c r="H73" t="str">
-        <v>KLDZM6zTu</v>
+        <v>CR0uzVUz6</v>
       </c>
       <c r="I73" t="str">
-        <v>1SA0002620</v>
+        <v>1SA0004006</v>
       </c>
       <c r="J73" t="str">
         <v>10</v>
       </c>
       <c r="K73" t="str">
-        <v>624</v>
+        <v>2083</v>
       </c>
       <c r="L73" t="str">
         <v>USD</v>
       </c>
       <c r="M73" t="str">
-        <v>624</v>
+        <v>2083</v>
       </c>
       <c r="N73" t="str">
         <v>SAC1</v>
@@ -4501,54 +4501,54 @@
         <v>JSON</v>
       </c>
       <c r="P73" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q73" t="str">
-        <v>OneToMany</v>
+        <v>OneToOne</v>
       </c>
       <c r="R73" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>B5DeK9to</v>
+        <v>o2nDlbLF</v>
       </c>
       <c r="B74" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C74" t="str">
-        <v>1SA0002546</v>
+        <v>1SA0003884</v>
       </c>
       <c r="D74" t="str">
         <v>10</v>
       </c>
       <c r="E74" t="str">
-        <v>2158</v>
+        <v>750</v>
       </c>
       <c r="F74" t="str">
         <v>USD</v>
       </c>
       <c r="G74" t="str">
-        <v>1SA5000651</v>
+        <v>1SA5002252</v>
       </c>
       <c r="H74" t="str">
-        <v>k6TAyC0Le</v>
+        <v>LxQaQQfXs</v>
       </c>
       <c r="I74" t="str">
-        <v>1SA0002621</v>
+        <v>1SA0004007</v>
       </c>
       <c r="J74" t="str">
         <v>10</v>
       </c>
       <c r="K74" t="str">
-        <v>1888</v>
+        <v>357</v>
       </c>
       <c r="L74" t="str">
         <v>USD</v>
       </c>
       <c r="M74" t="str">
-        <v>1888</v>
+        <v>357</v>
       </c>
       <c r="N74" t="str">
         <v>SAC1</v>
@@ -4557,7 +4557,7 @@
         <v>JSON</v>
       </c>
       <c r="P74" t="str">
-        <v>OverDelivery-DiffPrepayment</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q74" t="str">
         <v>OneToMany</v>
@@ -4568,43 +4568,43 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>t4x8SoZO</v>
+        <v>o2nDlbLF</v>
       </c>
       <c r="B75" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C75" t="str">
-        <v>1SA0002547</v>
+        <v>1SA0003884</v>
       </c>
       <c r="D75" t="str">
         <v>10</v>
       </c>
       <c r="E75" t="str">
-        <v>949</v>
+        <v>750</v>
       </c>
       <c r="F75" t="str">
         <v>USD</v>
       </c>
       <c r="G75" t="str">
-        <v>1SA5000652</v>
+        <v>1SA5002252</v>
       </c>
       <c r="H75" t="str">
-        <v>t4x8SoZO</v>
+        <v>lYNKXDCgN</v>
       </c>
       <c r="I75" t="str">
-        <v>1SA0002622</v>
+        <v>1SA0004008</v>
       </c>
       <c r="J75" t="str">
         <v>10</v>
       </c>
       <c r="K75" t="str">
-        <v>949</v>
+        <v>393</v>
       </c>
       <c r="L75" t="str">
         <v>USD</v>
       </c>
       <c r="M75" t="str">
-        <v>949</v>
+        <v>393</v>
       </c>
       <c r="N75" t="str">
         <v>SAC1</v>
@@ -4613,54 +4613,54 @@
         <v>JSON</v>
       </c>
       <c r="P75" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>UnderDelivery-DiffPrepayment</v>
       </c>
       <c r="Q75" t="str">
-        <v>OneToOne</v>
+        <v>OneToMany</v>
       </c>
       <c r="R75" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>BSG24uVH</v>
+        <v>XWhA0Dik</v>
       </c>
       <c r="B76" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C76" t="str">
-        <v>1SA0002548</v>
+        <v>1SA0003885</v>
       </c>
       <c r="D76" t="str">
         <v>10</v>
       </c>
       <c r="E76" t="str">
-        <v>2047</v>
+        <v>740</v>
       </c>
       <c r="F76" t="str">
         <v>USD</v>
       </c>
       <c r="G76" t="str">
-        <v>1SA5000653</v>
+        <v>1SA5002253</v>
       </c>
       <c r="H76" t="str">
-        <v>k6S3Ddhdg</v>
+        <v>a5grYmkNI</v>
       </c>
       <c r="I76" t="str">
-        <v>1SA0002623</v>
+        <v>1SA0004009</v>
       </c>
       <c r="J76" t="str">
         <v>10</v>
       </c>
       <c r="K76" t="str">
-        <v>2962</v>
+        <v>969</v>
       </c>
       <c r="L76" t="str">
         <v>USD</v>
       </c>
       <c r="M76" t="str">
-        <v>2962</v>
+        <v>969</v>
       </c>
       <c r="N76" t="str">
         <v>SAC1</v>
@@ -4680,43 +4680,43 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>zi8K7xwH</v>
+        <v>SpJLiv8A</v>
       </c>
       <c r="B77" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C77" t="str">
-        <v>1SA0002549</v>
+        <v>1SA0003886</v>
       </c>
       <c r="D77" t="str">
         <v>10</v>
       </c>
       <c r="E77" t="str">
-        <v>2080</v>
+        <v>2419</v>
       </c>
       <c r="F77" t="str">
         <v>USD</v>
       </c>
       <c r="G77" t="str">
-        <v>1SA5000654</v>
+        <v>1SA5002254</v>
       </c>
       <c r="H77" t="str">
-        <v>zi8K7xwH</v>
+        <v>SpJLiv8A</v>
       </c>
       <c r="I77" t="str">
-        <v>1SA0002624</v>
+        <v>1SA0004010</v>
       </c>
       <c r="J77" t="str">
         <v>10</v>
       </c>
       <c r="K77" t="str">
-        <v>141</v>
+        <v>1244</v>
       </c>
       <c r="L77" t="str">
         <v>USD</v>
       </c>
       <c r="M77" t="str">
-        <v>141</v>
+        <v>1244</v>
       </c>
       <c r="N77" t="str">
         <v>SAC1</v>
@@ -4725,7 +4725,7 @@
         <v>JSON</v>
       </c>
       <c r="P77" t="str">
-        <v>UnderDelivery-Happy</v>
+        <v>OverDelivery-Happy</v>
       </c>
       <c r="Q77" t="str">
         <v>OneToMany</v>
@@ -4736,43 +4736,43 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>zi8K7xwH</v>
+        <v>SpJLiv8A</v>
       </c>
       <c r="B78" t="str">
         <v>HS58M1PTWJ</v>
       </c>
       <c r="C78" t="str">
-        <v>1SA0002549</v>
+        <v>1SA0003886</v>
       </c>
       <c r="D78" t="str">
         <v>10</v>
       </c>
       <c r="E78" t="str">
-        <v>2080</v>
+        <v>2419</v>
       </c>
       <c r="F78" t="str">
         <v>USD</v>
       </c>
       <c r="G78" t="str">
-        <v>1SA5000654</v>
+        <v>1SA5002254</v>
       </c>
       <c r="H78" t="str">
-        <v>zi8K7xwH</v>
+        <v>SpJLiv8A</v>
       </c>
       <c r="I78" t="str">
-        <v>1SA0002625</v>
+        <v>1SA0004011</v>
       </c>
       <c r="J78" t="str">
         <v>10</v>
       </c>
       <c r="K78" t="str">
-        <v>1939</v>
+        <v>1189</v>
       </c>
       <c r="L78" t="str">
         <v>USD</v>
       </c>
       <c r="M78" t="str">
-        <v>1939</v>
+        <v>1189</v>
       </c>
       <c r="N78" t="str">
         <v>SAC1</v>
@@ -4781,18 +4781,4386 @@
         <v>JSON</v>
       </c>
       <c r="P78" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R78" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>xUCwG0dl</v>
+      </c>
+      <c r="B79" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C79" t="str">
+        <v>1SA0003887</v>
+      </c>
+      <c r="D79" t="str">
+        <v>10</v>
+      </c>
+      <c r="E79" t="str">
+        <v>1602</v>
+      </c>
+      <c r="F79" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G79" t="str">
+        <v>1SA5002255</v>
+      </c>
+      <c r="H79" t="str">
+        <v>xUCwG0dl</v>
+      </c>
+      <c r="I79" t="str">
+        <v>1SA0004012</v>
+      </c>
+      <c r="J79" t="str">
+        <v>10</v>
+      </c>
+      <c r="K79" t="str">
+        <v>729</v>
+      </c>
+      <c r="L79" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M79" t="str">
+        <v>729</v>
+      </c>
+      <c r="N79" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O79" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P79" t="str">
         <v>UnderDelivery-Happy</v>
       </c>
-      <c r="Q78" t="str">
-        <v>OneToMany</v>
-      </c>
-      <c r="R78" t="str">
-        <v>2</v>
+      <c r="Q79" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R79" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>xUCwG0dl</v>
+      </c>
+      <c r="B80" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C80" t="str">
+        <v>1SA0003887</v>
+      </c>
+      <c r="D80" t="str">
+        <v>10</v>
+      </c>
+      <c r="E80" t="str">
+        <v>1602</v>
+      </c>
+      <c r="F80" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G80" t="str">
+        <v>1SA5002255</v>
+      </c>
+      <c r="H80" t="str">
+        <v>xUCwG0dl</v>
+      </c>
+      <c r="I80" t="str">
+        <v>1SA0004013</v>
+      </c>
+      <c r="J80" t="str">
+        <v>10</v>
+      </c>
+      <c r="K80" t="str">
+        <v>873</v>
+      </c>
+      <c r="L80" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M80" t="str">
+        <v>873</v>
+      </c>
+      <c r="N80" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O80" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P80" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q80" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R80" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>a31qTYA8</v>
+      </c>
+      <c r="B81" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C81" t="str">
+        <v>1SA0003888</v>
+      </c>
+      <c r="D81" t="str">
+        <v>10</v>
+      </c>
+      <c r="E81" t="str">
+        <v>1455</v>
+      </c>
+      <c r="F81" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G81" t="str">
+        <v>1SA5002256</v>
+      </c>
+      <c r="H81" t="str">
+        <v>a31qTYA8</v>
+      </c>
+      <c r="I81" t="str">
+        <v>1SA0004014</v>
+      </c>
+      <c r="J81" t="str">
+        <v>10</v>
+      </c>
+      <c r="K81" t="str">
+        <v>2351</v>
+      </c>
+      <c r="L81" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M81" t="str">
+        <v>2351</v>
+      </c>
+      <c r="N81" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O81" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P81" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q81" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R81" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>JZ4WHO6G</v>
+      </c>
+      <c r="B82" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C82" t="str">
+        <v>1SA0003889</v>
+      </c>
+      <c r="D82" t="str">
+        <v>10</v>
+      </c>
+      <c r="E82" t="str">
+        <v>1422</v>
+      </c>
+      <c r="F82" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G82" t="str">
+        <v>1SA5002257</v>
+      </c>
+      <c r="H82" t="str">
+        <v>gYxnz1uig</v>
+      </c>
+      <c r="I82" t="str">
+        <v>1SA0004015</v>
+      </c>
+      <c r="J82" t="str">
+        <v>10</v>
+      </c>
+      <c r="K82" t="str">
+        <v>453</v>
+      </c>
+      <c r="L82" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M82" t="str">
+        <v>453</v>
+      </c>
+      <c r="N82" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O82" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P82" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q82" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R82" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>JZ4WHO6G</v>
+      </c>
+      <c r="B83" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C83" t="str">
+        <v>1SA0003889</v>
+      </c>
+      <c r="D83" t="str">
+        <v>10</v>
+      </c>
+      <c r="E83" t="str">
+        <v>1422</v>
+      </c>
+      <c r="F83" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G83" t="str">
+        <v>1SA5002257</v>
+      </c>
+      <c r="H83" t="str">
+        <v>BIIfKxoYj</v>
+      </c>
+      <c r="I83" t="str">
+        <v>1SA0004016</v>
+      </c>
+      <c r="J83" t="str">
+        <v>10</v>
+      </c>
+      <c r="K83" t="str">
+        <v>969</v>
+      </c>
+      <c r="L83" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M83" t="str">
+        <v>969</v>
+      </c>
+      <c r="N83" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O83" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P83" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q83" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R83" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>0A5TrZwO</v>
+      </c>
+      <c r="B84" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C84" t="str">
+        <v>1SA0003890</v>
+      </c>
+      <c r="D84" t="str">
+        <v>10</v>
+      </c>
+      <c r="E84" t="str">
+        <v>1016</v>
+      </c>
+      <c r="F84" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G84" t="str">
+        <v>1SA5002258</v>
+      </c>
+      <c r="H84" t="str">
+        <v>u8vWMstlW</v>
+      </c>
+      <c r="I84" t="str">
+        <v>1SA0004017</v>
+      </c>
+      <c r="J84" t="str">
+        <v>10</v>
+      </c>
+      <c r="K84" t="str">
+        <v>335</v>
+      </c>
+      <c r="L84" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M84" t="str">
+        <v>335</v>
+      </c>
+      <c r="N84" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O84" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P84" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q84" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R84" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>0A5TrZwO</v>
+      </c>
+      <c r="B85" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C85" t="str">
+        <v>1SA0003890</v>
+      </c>
+      <c r="D85" t="str">
+        <v>10</v>
+      </c>
+      <c r="E85" t="str">
+        <v>1016</v>
+      </c>
+      <c r="F85" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G85" t="str">
+        <v>1SA5002258</v>
+      </c>
+      <c r="H85" t="str">
+        <v>PWNjz2I7M</v>
+      </c>
+      <c r="I85" t="str">
+        <v>1SA0004018</v>
+      </c>
+      <c r="J85" t="str">
+        <v>10</v>
+      </c>
+      <c r="K85" t="str">
+        <v>681</v>
+      </c>
+      <c r="L85" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M85" t="str">
+        <v>681</v>
+      </c>
+      <c r="N85" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O85" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P85" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R85" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>51FxJ4kE</v>
+      </c>
+      <c r="B86" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C86" t="str">
+        <v>1SA0003891</v>
+      </c>
+      <c r="D86" t="str">
+        <v>10</v>
+      </c>
+      <c r="E86" t="str">
+        <v>974</v>
+      </c>
+      <c r="F86" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G86" t="str">
+        <v>1SA5002259</v>
+      </c>
+      <c r="H86" t="str">
+        <v>51FxJ4kE</v>
+      </c>
+      <c r="I86" t="str">
+        <v>1SA0004019</v>
+      </c>
+      <c r="J86" t="str">
+        <v>10</v>
+      </c>
+      <c r="K86" t="str">
+        <v>322</v>
+      </c>
+      <c r="L86" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M86" t="str">
+        <v>322</v>
+      </c>
+      <c r="N86" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O86" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P86" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R86" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>51FxJ4kE</v>
+      </c>
+      <c r="B87" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C87" t="str">
+        <v>1SA0003891</v>
+      </c>
+      <c r="D87" t="str">
+        <v>10</v>
+      </c>
+      <c r="E87" t="str">
+        <v>974</v>
+      </c>
+      <c r="F87" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G87" t="str">
+        <v>1SA5002259</v>
+      </c>
+      <c r="H87" t="str">
+        <v>51FxJ4kE</v>
+      </c>
+      <c r="I87" t="str">
+        <v>1SA0004020</v>
+      </c>
+      <c r="J87" t="str">
+        <v>10</v>
+      </c>
+      <c r="K87" t="str">
+        <v>652</v>
+      </c>
+      <c r="L87" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M87" t="str">
+        <v>652</v>
+      </c>
+      <c r="N87" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O87" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P87" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R87" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>h4ZJMqi2</v>
+      </c>
+      <c r="B88" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C88" t="str">
+        <v>1SA0003892</v>
+      </c>
+      <c r="D88" t="str">
+        <v>10</v>
+      </c>
+      <c r="E88" t="str">
+        <v>2243</v>
+      </c>
+      <c r="F88" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G88" t="str">
+        <v>1SA5002260</v>
+      </c>
+      <c r="H88" t="str">
+        <v>h4ZJMqi2</v>
+      </c>
+      <c r="I88" t="str">
+        <v>1SA0004021</v>
+      </c>
+      <c r="J88" t="str">
+        <v>10</v>
+      </c>
+      <c r="K88" t="str">
+        <v>751</v>
+      </c>
+      <c r="L88" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M88" t="str">
+        <v>751</v>
+      </c>
+      <c r="N88" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O88" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P88" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R88" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>h4ZJMqi2</v>
+      </c>
+      <c r="B89" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C89" t="str">
+        <v>1SA0003892</v>
+      </c>
+      <c r="D89" t="str">
+        <v>10</v>
+      </c>
+      <c r="E89" t="str">
+        <v>2243</v>
+      </c>
+      <c r="F89" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G89" t="str">
+        <v>1SA5002260</v>
+      </c>
+      <c r="H89" t="str">
+        <v>h4ZJMqi2</v>
+      </c>
+      <c r="I89" t="str">
+        <v>1SA0004022</v>
+      </c>
+      <c r="J89" t="str">
+        <v>10</v>
+      </c>
+      <c r="K89" t="str">
+        <v>1492</v>
+      </c>
+      <c r="L89" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M89" t="str">
+        <v>1492</v>
+      </c>
+      <c r="N89" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O89" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P89" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R89" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>MO03LqC9</v>
+      </c>
+      <c r="B90" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C90" t="str">
+        <v>1SA0003893</v>
+      </c>
+      <c r="D90" t="str">
+        <v>10</v>
+      </c>
+      <c r="E90" t="str">
+        <v>2172</v>
+      </c>
+      <c r="F90" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G90" t="str">
+        <v>1SA5002261</v>
+      </c>
+      <c r="H90" t="str">
+        <v>KBMkTbZyS</v>
+      </c>
+      <c r="I90" t="str">
+        <v>1SA0004023</v>
+      </c>
+      <c r="J90" t="str">
+        <v>10</v>
+      </c>
+      <c r="K90" t="str">
+        <v>80</v>
+      </c>
+      <c r="L90" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M90" t="str">
+        <v>80</v>
+      </c>
+      <c r="N90" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O90" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P90" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R90" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>MO03LqC9</v>
+      </c>
+      <c r="B91" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C91" t="str">
+        <v>1SA0003893</v>
+      </c>
+      <c r="D91" t="str">
+        <v>10</v>
+      </c>
+      <c r="E91" t="str">
+        <v>2172</v>
+      </c>
+      <c r="F91" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G91" t="str">
+        <v>1SA5002261</v>
+      </c>
+      <c r="H91" t="str">
+        <v>ahV44BQwV</v>
+      </c>
+      <c r="I91" t="str">
+        <v>1SA0004024</v>
+      </c>
+      <c r="J91" t="str">
+        <v>10</v>
+      </c>
+      <c r="K91" t="str">
+        <v>2092</v>
+      </c>
+      <c r="L91" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M91" t="str">
+        <v>2092</v>
+      </c>
+      <c r="N91" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O91" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P91" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q91" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R91" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>eoLwD4rS</v>
+      </c>
+      <c r="B92" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C92" t="str">
+        <v>1SA0003894</v>
+      </c>
+      <c r="D92" t="str">
+        <v>10</v>
+      </c>
+      <c r="E92" t="str">
+        <v>2210</v>
+      </c>
+      <c r="F92" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G92" t="str">
+        <v>1SA5002262</v>
+      </c>
+      <c r="H92" t="str">
+        <v>vHyflfCmv</v>
+      </c>
+      <c r="I92" t="str">
+        <v>1SA0004025</v>
+      </c>
+      <c r="J92" t="str">
+        <v>10</v>
+      </c>
+      <c r="K92" t="str">
+        <v>49</v>
+      </c>
+      <c r="L92" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M92" t="str">
+        <v>49</v>
+      </c>
+      <c r="N92" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O92" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P92" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R92" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>eoLwD4rS</v>
+      </c>
+      <c r="B93" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C93" t="str">
+        <v>1SA0003894</v>
+      </c>
+      <c r="D93" t="str">
+        <v>10</v>
+      </c>
+      <c r="E93" t="str">
+        <v>2210</v>
+      </c>
+      <c r="F93" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G93" t="str">
+        <v>1SA5002262</v>
+      </c>
+      <c r="H93" t="str">
+        <v>iyhq3Z5jd</v>
+      </c>
+      <c r="I93" t="str">
+        <v>1SA0004026</v>
+      </c>
+      <c r="J93" t="str">
+        <v>10</v>
+      </c>
+      <c r="K93" t="str">
+        <v>2549</v>
+      </c>
+      <c r="L93" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M93" t="str">
+        <v>2549</v>
+      </c>
+      <c r="N93" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O93" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P93" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q93" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R93" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Ccwl2Lpk</v>
+      </c>
+      <c r="B94" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C94" t="str">
+        <v>1SA0003895</v>
+      </c>
+      <c r="D94" t="str">
+        <v>10</v>
+      </c>
+      <c r="E94" t="str">
+        <v>1587</v>
+      </c>
+      <c r="F94" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G94" t="str">
+        <v>1SA5002263</v>
+      </c>
+      <c r="H94" t="str">
+        <v>Ccwl2Lpk</v>
+      </c>
+      <c r="I94" t="str">
+        <v>1SA0004027</v>
+      </c>
+      <c r="J94" t="str">
+        <v>10</v>
+      </c>
+      <c r="K94" t="str">
+        <v>2227</v>
+      </c>
+      <c r="L94" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M94" t="str">
+        <v>2227</v>
+      </c>
+      <c r="N94" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O94" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P94" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q94" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R94" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>KZmFl3hj</v>
+      </c>
+      <c r="B95" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C95" t="str">
+        <v>1SA0003896</v>
+      </c>
+      <c r="D95" t="str">
+        <v>10</v>
+      </c>
+      <c r="E95" t="str">
+        <v>1136</v>
+      </c>
+      <c r="F95" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G95" t="str">
+        <v>1SA5002264</v>
+      </c>
+      <c r="H95" t="str">
+        <v>KZmFl3hj</v>
+      </c>
+      <c r="I95" t="str">
+        <v>1SA0004028</v>
+      </c>
+      <c r="J95" t="str">
+        <v>10</v>
+      </c>
+      <c r="K95" t="str">
+        <v>1867</v>
+      </c>
+      <c r="L95" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M95" t="str">
+        <v>1867</v>
+      </c>
+      <c r="N95" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O95" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P95" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q95" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R95" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>YkJuGzh2</v>
+      </c>
+      <c r="B96" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C96" t="str">
+        <v>1SA0003897</v>
+      </c>
+      <c r="D96" t="str">
+        <v>10</v>
+      </c>
+      <c r="E96" t="str">
+        <v>1091</v>
+      </c>
+      <c r="F96" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G96" t="str">
+        <v>1SA5002265</v>
+      </c>
+      <c r="H96" t="str">
+        <v>YkJuGzh2</v>
+      </c>
+      <c r="I96" t="str">
+        <v>1SA0004029</v>
+      </c>
+      <c r="J96" t="str">
+        <v>10</v>
+      </c>
+      <c r="K96" t="str">
+        <v>79</v>
+      </c>
+      <c r="L96" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M96" t="str">
+        <v>79</v>
+      </c>
+      <c r="N96" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O96" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P96" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q96" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R96" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>YkJuGzh2</v>
+      </c>
+      <c r="B97" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C97" t="str">
+        <v>1SA0003897</v>
+      </c>
+      <c r="D97" t="str">
+        <v>10</v>
+      </c>
+      <c r="E97" t="str">
+        <v>1091</v>
+      </c>
+      <c r="F97" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G97" t="str">
+        <v>1SA5002265</v>
+      </c>
+      <c r="H97" t="str">
+        <v>YkJuGzh2</v>
+      </c>
+      <c r="I97" t="str">
+        <v>1SA0004030</v>
+      </c>
+      <c r="J97" t="str">
+        <v>10</v>
+      </c>
+      <c r="K97" t="str">
+        <v>1012</v>
+      </c>
+      <c r="L97" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M97" t="str">
+        <v>1012</v>
+      </c>
+      <c r="N97" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O97" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P97" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q97" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R97" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>5ojO0ILi</v>
+      </c>
+      <c r="B98" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C98" t="str">
+        <v>1SA0003898</v>
+      </c>
+      <c r="D98" t="str">
+        <v>10</v>
+      </c>
+      <c r="E98" t="str">
+        <v>2498</v>
+      </c>
+      <c r="F98" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G98" t="str">
+        <v>1SA5002266</v>
+      </c>
+      <c r="H98" t="str">
+        <v>8fLNg3efn</v>
+      </c>
+      <c r="I98" t="str">
+        <v>1SA0004031</v>
+      </c>
+      <c r="J98" t="str">
+        <v>10</v>
+      </c>
+      <c r="K98" t="str">
+        <v>1023</v>
+      </c>
+      <c r="L98" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M98" t="str">
+        <v>1023</v>
+      </c>
+      <c r="N98" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O98" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P98" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q98" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R98" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>5ojO0ILi</v>
+      </c>
+      <c r="B99" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C99" t="str">
+        <v>1SA0003898</v>
+      </c>
+      <c r="D99" t="str">
+        <v>10</v>
+      </c>
+      <c r="E99" t="str">
+        <v>2498</v>
+      </c>
+      <c r="F99" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G99" t="str">
+        <v>1SA5002266</v>
+      </c>
+      <c r="H99" t="str">
+        <v>JclBs7cHM</v>
+      </c>
+      <c r="I99" t="str">
+        <v>1SA0004032</v>
+      </c>
+      <c r="J99" t="str">
+        <v>10</v>
+      </c>
+      <c r="K99" t="str">
+        <v>1820</v>
+      </c>
+      <c r="L99" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M99" t="str">
+        <v>1820</v>
+      </c>
+      <c r="N99" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O99" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P99" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R99" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>l5SbUtpN</v>
+      </c>
+      <c r="B100" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C100" t="str">
+        <v>1SA0003899</v>
+      </c>
+      <c r="D100" t="str">
+        <v>10</v>
+      </c>
+      <c r="E100" t="str">
+        <v>2117</v>
+      </c>
+      <c r="F100" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G100" t="str">
+        <v>1SA5002267</v>
+      </c>
+      <c r="H100" t="str">
+        <v>9WMCaRcbV</v>
+      </c>
+      <c r="I100" t="str">
+        <v>1SA0004033</v>
+      </c>
+      <c r="J100" t="str">
+        <v>10</v>
+      </c>
+      <c r="K100" t="str">
+        <v>1041</v>
+      </c>
+      <c r="L100" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M100" t="str">
+        <v>1041</v>
+      </c>
+      <c r="N100" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O100" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P100" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q100" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R100" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>l5SbUtpN</v>
+      </c>
+      <c r="B101" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C101" t="str">
+        <v>1SA0003899</v>
+      </c>
+      <c r="D101" t="str">
+        <v>10</v>
+      </c>
+      <c r="E101" t="str">
+        <v>2117</v>
+      </c>
+      <c r="F101" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G101" t="str">
+        <v>1SA5002267</v>
+      </c>
+      <c r="H101" t="str">
+        <v>9GpJhBiqG</v>
+      </c>
+      <c r="I101" t="str">
+        <v>1SA0004034</v>
+      </c>
+      <c r="J101" t="str">
+        <v>10</v>
+      </c>
+      <c r="K101" t="str">
+        <v>1451</v>
+      </c>
+      <c r="L101" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M101" t="str">
+        <v>1451</v>
+      </c>
+      <c r="N101" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O101" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P101" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q101" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R101" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>f57RMsym</v>
+      </c>
+      <c r="B102" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C102" t="str">
+        <v>1SA0003900</v>
+      </c>
+      <c r="D102" t="str">
+        <v>10</v>
+      </c>
+      <c r="E102" t="str">
+        <v>1119</v>
+      </c>
+      <c r="F102" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G102" t="str">
+        <v>1SA5002268</v>
+      </c>
+      <c r="H102" t="str">
+        <v>8htC377F4</v>
+      </c>
+      <c r="I102" t="str">
+        <v>1SA0004035</v>
+      </c>
+      <c r="J102" t="str">
+        <v>10</v>
+      </c>
+      <c r="K102" t="str">
+        <v>1119</v>
+      </c>
+      <c r="L102" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M102" t="str">
+        <v>1119</v>
+      </c>
+      <c r="N102" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O102" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P102" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q102" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R102" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>4x86Ty7j</v>
+      </c>
+      <c r="B103" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C103" t="str">
+        <v>1SA0003901</v>
+      </c>
+      <c r="D103" t="str">
+        <v>10</v>
+      </c>
+      <c r="E103" t="str">
+        <v>2369</v>
+      </c>
+      <c r="F103" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G103" t="str">
+        <v>1SA5002269</v>
+      </c>
+      <c r="H103" t="str">
+        <v>4x86Ty7j</v>
+      </c>
+      <c r="I103" t="str">
+        <v>1SA0004036</v>
+      </c>
+      <c r="J103" t="str">
+        <v>10</v>
+      </c>
+      <c r="K103" t="str">
+        <v>1240</v>
+      </c>
+      <c r="L103" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M103" t="str">
+        <v>1240</v>
+      </c>
+      <c r="N103" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O103" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P103" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R103" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>4x86Ty7j</v>
+      </c>
+      <c r="B104" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C104" t="str">
+        <v>1SA0003901</v>
+      </c>
+      <c r="D104" t="str">
+        <v>10</v>
+      </c>
+      <c r="E104" t="str">
+        <v>2369</v>
+      </c>
+      <c r="F104" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G104" t="str">
+        <v>1SA5002269</v>
+      </c>
+      <c r="H104" t="str">
+        <v>4x86Ty7j</v>
+      </c>
+      <c r="I104" t="str">
+        <v>1SA0004037</v>
+      </c>
+      <c r="J104" t="str">
+        <v>10</v>
+      </c>
+      <c r="K104" t="str">
+        <v>1439</v>
+      </c>
+      <c r="L104" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M104" t="str">
+        <v>1439</v>
+      </c>
+      <c r="N104" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O104" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P104" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q104" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R104" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>UxO2cTuL</v>
+      </c>
+      <c r="B105" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C105" t="str">
+        <v>1SA0003902</v>
+      </c>
+      <c r="D105" t="str">
+        <v>10</v>
+      </c>
+      <c r="E105" t="str">
+        <v>525</v>
+      </c>
+      <c r="F105" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G105" t="str">
+        <v>1SA5002270</v>
+      </c>
+      <c r="H105" t="str">
+        <v>UxO2cTuL</v>
+      </c>
+      <c r="I105" t="str">
+        <v>1SA0004038</v>
+      </c>
+      <c r="J105" t="str">
+        <v>10</v>
+      </c>
+      <c r="K105" t="str">
+        <v>525</v>
+      </c>
+      <c r="L105" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M105" t="str">
+        <v>525</v>
+      </c>
+      <c r="N105" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O105" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P105" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q105" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R105" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>WSlZcCrd</v>
+      </c>
+      <c r="B106" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C106" t="str">
+        <v>1SA0003903</v>
+      </c>
+      <c r="D106" t="str">
+        <v>10</v>
+      </c>
+      <c r="E106" t="str">
+        <v>1973</v>
+      </c>
+      <c r="F106" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G106" t="str">
+        <v>1SA5002271</v>
+      </c>
+      <c r="H106" t="str">
+        <v>WSlZcCrd</v>
+      </c>
+      <c r="I106" t="str">
+        <v>1SA0004039</v>
+      </c>
+      <c r="J106" t="str">
+        <v>10</v>
+      </c>
+      <c r="K106" t="str">
+        <v>1973</v>
+      </c>
+      <c r="L106" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M106" t="str">
+        <v>1973</v>
+      </c>
+      <c r="N106" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O106" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P106" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q106" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R106" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>0knaCFEZ</v>
+      </c>
+      <c r="B107" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C107" t="str">
+        <v>1SA0003904</v>
+      </c>
+      <c r="D107" t="str">
+        <v>10</v>
+      </c>
+      <c r="E107" t="str">
+        <v>540</v>
+      </c>
+      <c r="F107" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G107" t="str">
+        <v>1SA5002272</v>
+      </c>
+      <c r="H107" t="str">
+        <v>5flNKTb0F</v>
+      </c>
+      <c r="I107" t="str">
+        <v>1SA0004040</v>
+      </c>
+      <c r="J107" t="str">
+        <v>10</v>
+      </c>
+      <c r="K107" t="str">
+        <v>540</v>
+      </c>
+      <c r="L107" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M107" t="str">
+        <v>540</v>
+      </c>
+      <c r="N107" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O107" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P107" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q107" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R107" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>lWF4VL3M</v>
+      </c>
+      <c r="B108" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C108" t="str">
+        <v>1SA0003905</v>
+      </c>
+      <c r="D108" t="str">
+        <v>10</v>
+      </c>
+      <c r="E108" t="str">
+        <v>2272</v>
+      </c>
+      <c r="F108" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G108" t="str">
+        <v>1SA5002273</v>
+      </c>
+      <c r="H108" t="str">
+        <v>wZkPLAWae</v>
+      </c>
+      <c r="I108" t="str">
+        <v>1SA0004041</v>
+      </c>
+      <c r="J108" t="str">
+        <v>10</v>
+      </c>
+      <c r="K108" t="str">
+        <v>878</v>
+      </c>
+      <c r="L108" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M108" t="str">
+        <v>878</v>
+      </c>
+      <c r="N108" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O108" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P108" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q108" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R108" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>lWF4VL3M</v>
+      </c>
+      <c r="B109" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C109" t="str">
+        <v>1SA0003905</v>
+      </c>
+      <c r="D109" t="str">
+        <v>10</v>
+      </c>
+      <c r="E109" t="str">
+        <v>2272</v>
+      </c>
+      <c r="F109" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G109" t="str">
+        <v>1SA5002273</v>
+      </c>
+      <c r="H109" t="str">
+        <v>pO9NdJcBC</v>
+      </c>
+      <c r="I109" t="str">
+        <v>1SA0004042</v>
+      </c>
+      <c r="J109" t="str">
+        <v>10</v>
+      </c>
+      <c r="K109" t="str">
+        <v>1663</v>
+      </c>
+      <c r="L109" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M109" t="str">
+        <v>1663</v>
+      </c>
+      <c r="N109" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O109" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P109" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q109" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R109" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>CuyF4Bm5</v>
+      </c>
+      <c r="B110" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C110" t="str">
+        <v>1SA0003906</v>
+      </c>
+      <c r="D110" t="str">
+        <v>10</v>
+      </c>
+      <c r="E110" t="str">
+        <v>1095</v>
+      </c>
+      <c r="F110" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G110" t="str">
+        <v>1SA5002274</v>
+      </c>
+      <c r="H110" t="str">
+        <v>NddK4lRme</v>
+      </c>
+      <c r="I110" t="str">
+        <v>1SA0004043</v>
+      </c>
+      <c r="J110" t="str">
+        <v>10</v>
+      </c>
+      <c r="K110" t="str">
+        <v>281</v>
+      </c>
+      <c r="L110" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M110" t="str">
+        <v>281</v>
+      </c>
+      <c r="N110" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O110" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P110" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q110" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R110" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>CuyF4Bm5</v>
+      </c>
+      <c r="B111" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C111" t="str">
+        <v>1SA0003906</v>
+      </c>
+      <c r="D111" t="str">
+        <v>10</v>
+      </c>
+      <c r="E111" t="str">
+        <v>1095</v>
+      </c>
+      <c r="F111" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G111" t="str">
+        <v>1SA5002274</v>
+      </c>
+      <c r="H111" t="str">
+        <v>KNNUK7Ka5</v>
+      </c>
+      <c r="I111" t="str">
+        <v>1SA0004044</v>
+      </c>
+      <c r="J111" t="str">
+        <v>10</v>
+      </c>
+      <c r="K111" t="str">
+        <v>814</v>
+      </c>
+      <c r="L111" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M111" t="str">
+        <v>814</v>
+      </c>
+      <c r="N111" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O111" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P111" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q111" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R111" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>dLg7VXc1</v>
+      </c>
+      <c r="B112" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C112" t="str">
+        <v>1SA0003907</v>
+      </c>
+      <c r="D112" t="str">
+        <v>10</v>
+      </c>
+      <c r="E112" t="str">
+        <v>1840</v>
+      </c>
+      <c r="F112" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G112" t="str">
+        <v>1SA5002275</v>
+      </c>
+      <c r="H112" t="str">
+        <v>dLg7VXc1</v>
+      </c>
+      <c r="I112" t="str">
+        <v>1SA0004045</v>
+      </c>
+      <c r="J112" t="str">
+        <v>10</v>
+      </c>
+      <c r="K112" t="str">
+        <v>297</v>
+      </c>
+      <c r="L112" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M112" t="str">
+        <v>297</v>
+      </c>
+      <c r="N112" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O112" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P112" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q112" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R112" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>dLg7VXc1</v>
+      </c>
+      <c r="B113" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C113" t="str">
+        <v>1SA0003907</v>
+      </c>
+      <c r="D113" t="str">
+        <v>10</v>
+      </c>
+      <c r="E113" t="str">
+        <v>1840</v>
+      </c>
+      <c r="F113" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G113" t="str">
+        <v>1SA5002275</v>
+      </c>
+      <c r="H113" t="str">
+        <v>dLg7VXc1</v>
+      </c>
+      <c r="I113" t="str">
+        <v>1SA0004046</v>
+      </c>
+      <c r="J113" t="str">
+        <v>10</v>
+      </c>
+      <c r="K113" t="str">
+        <v>1693</v>
+      </c>
+      <c r="L113" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M113" t="str">
+        <v>1693</v>
+      </c>
+      <c r="N113" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O113" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P113" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q113" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R113" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>yrabUYsd</v>
+      </c>
+      <c r="B114" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C114" t="str">
+        <v>1SA0003908</v>
+      </c>
+      <c r="D114" t="str">
+        <v>10</v>
+      </c>
+      <c r="E114" t="str">
+        <v>2417</v>
+      </c>
+      <c r="F114" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G114" t="str">
+        <v>1SA5002276</v>
+      </c>
+      <c r="H114" t="str">
+        <v>hrypECaEt</v>
+      </c>
+      <c r="I114" t="str">
+        <v>1SA0004047</v>
+      </c>
+      <c r="J114" t="str">
+        <v>10</v>
+      </c>
+      <c r="K114" t="str">
+        <v>2417</v>
+      </c>
+      <c r="L114" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M114" t="str">
+        <v>2417</v>
+      </c>
+      <c r="N114" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O114" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P114" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q114" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R114" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>QIki3RBu</v>
+      </c>
+      <c r="B115" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C115" t="str">
+        <v>1SA0003909</v>
+      </c>
+      <c r="D115" t="str">
+        <v>10</v>
+      </c>
+      <c r="E115" t="str">
+        <v>561</v>
+      </c>
+      <c r="F115" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G115" t="str">
+        <v>1SA5002277</v>
+      </c>
+      <c r="H115" t="str">
+        <v>v5SeGedpo</v>
+      </c>
+      <c r="I115" t="str">
+        <v>1SA0004048</v>
+      </c>
+      <c r="J115" t="str">
+        <v>10</v>
+      </c>
+      <c r="K115" t="str">
+        <v>212</v>
+      </c>
+      <c r="L115" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M115" t="str">
+        <v>212</v>
+      </c>
+      <c r="N115" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O115" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P115" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q115" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R115" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>QIki3RBu</v>
+      </c>
+      <c r="B116" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C116" t="str">
+        <v>1SA0003909</v>
+      </c>
+      <c r="D116" t="str">
+        <v>10</v>
+      </c>
+      <c r="E116" t="str">
+        <v>561</v>
+      </c>
+      <c r="F116" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G116" t="str">
+        <v>1SA5002277</v>
+      </c>
+      <c r="H116" t="str">
+        <v>TSUoP1Xgw</v>
+      </c>
+      <c r="I116" t="str">
+        <v>1SA0004049</v>
+      </c>
+      <c r="J116" t="str">
+        <v>10</v>
+      </c>
+      <c r="K116" t="str">
+        <v>631</v>
+      </c>
+      <c r="L116" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M116" t="str">
+        <v>631</v>
+      </c>
+      <c r="N116" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O116" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P116" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q116" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R116" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>PWRm0Ly5</v>
+      </c>
+      <c r="B117" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C117" t="str">
+        <v>1SA0003910</v>
+      </c>
+      <c r="D117" t="str">
+        <v>10</v>
+      </c>
+      <c r="E117" t="str">
+        <v>1396</v>
+      </c>
+      <c r="F117" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G117" t="str">
+        <v>1SA5002278</v>
+      </c>
+      <c r="H117" t="str">
+        <v>PWRm0Ly5</v>
+      </c>
+      <c r="I117" t="str">
+        <v>1SA0004050</v>
+      </c>
+      <c r="J117" t="str">
+        <v>10</v>
+      </c>
+      <c r="K117" t="str">
+        <v>48</v>
+      </c>
+      <c r="L117" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M117" t="str">
+        <v>48</v>
+      </c>
+      <c r="N117" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O117" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P117" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q117" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R117" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>PWRm0Ly5</v>
+      </c>
+      <c r="B118" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C118" t="str">
+        <v>1SA0003910</v>
+      </c>
+      <c r="D118" t="str">
+        <v>10</v>
+      </c>
+      <c r="E118" t="str">
+        <v>1396</v>
+      </c>
+      <c r="F118" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G118" t="str">
+        <v>1SA5002278</v>
+      </c>
+      <c r="H118" t="str">
+        <v>PWRm0Ly5</v>
+      </c>
+      <c r="I118" t="str">
+        <v>1SA0004051</v>
+      </c>
+      <c r="J118" t="str">
+        <v>10</v>
+      </c>
+      <c r="K118" t="str">
+        <v>1348</v>
+      </c>
+      <c r="L118" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M118" t="str">
+        <v>1348</v>
+      </c>
+      <c r="N118" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O118" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P118" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q118" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R118" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>i9bNk7vE</v>
+      </c>
+      <c r="B119" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C119" t="str">
+        <v>1SA0003911</v>
+      </c>
+      <c r="D119" t="str">
+        <v>10</v>
+      </c>
+      <c r="E119" t="str">
+        <v>925</v>
+      </c>
+      <c r="F119" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G119" t="str">
+        <v>1SA5002279</v>
+      </c>
+      <c r="H119" t="str">
+        <v>i9bNk7vE</v>
+      </c>
+      <c r="I119" t="str">
+        <v>1SA0004052</v>
+      </c>
+      <c r="J119" t="str">
+        <v>10</v>
+      </c>
+      <c r="K119" t="str">
+        <v>925</v>
+      </c>
+      <c r="L119" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M119" t="str">
+        <v>925</v>
+      </c>
+      <c r="N119" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O119" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P119" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q119" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R119" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>CaQKln6A</v>
+      </c>
+      <c r="B120" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C120" t="str">
+        <v>1SA0003912</v>
+      </c>
+      <c r="D120" t="str">
+        <v>10</v>
+      </c>
+      <c r="E120" t="str">
+        <v>1026</v>
+      </c>
+      <c r="F120" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G120" t="str">
+        <v>1SA5002280</v>
+      </c>
+      <c r="H120" t="str">
+        <v>CaQKln6A</v>
+      </c>
+      <c r="I120" t="str">
+        <v>1SA0004053</v>
+      </c>
+      <c r="J120" t="str">
+        <v>10</v>
+      </c>
+      <c r="K120" t="str">
+        <v>404</v>
+      </c>
+      <c r="L120" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M120" t="str">
+        <v>404</v>
+      </c>
+      <c r="N120" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O120" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P120" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q120" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R120" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>CaQKln6A</v>
+      </c>
+      <c r="B121" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C121" t="str">
+        <v>1SA0003912</v>
+      </c>
+      <c r="D121" t="str">
+        <v>10</v>
+      </c>
+      <c r="E121" t="str">
+        <v>1026</v>
+      </c>
+      <c r="F121" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G121" t="str">
+        <v>1SA5002280</v>
+      </c>
+      <c r="H121" t="str">
+        <v>CaQKln6A</v>
+      </c>
+      <c r="I121" t="str">
+        <v>1SA0004054</v>
+      </c>
+      <c r="J121" t="str">
+        <v>10</v>
+      </c>
+      <c r="K121" t="str">
+        <v>622</v>
+      </c>
+      <c r="L121" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M121" t="str">
+        <v>622</v>
+      </c>
+      <c r="N121" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O121" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P121" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q121" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R121" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>C3NHkjyv</v>
+      </c>
+      <c r="B122" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C122" t="str">
+        <v>1SA0003913</v>
+      </c>
+      <c r="D122" t="str">
+        <v>10</v>
+      </c>
+      <c r="E122" t="str">
+        <v>755</v>
+      </c>
+      <c r="F122" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G122" t="str">
+        <v>1SA5002281</v>
+      </c>
+      <c r="H122" t="str">
+        <v>C3NHkjyv</v>
+      </c>
+      <c r="I122" t="str">
+        <v>1SA0004055</v>
+      </c>
+      <c r="J122" t="str">
+        <v>10</v>
+      </c>
+      <c r="K122" t="str">
+        <v>214</v>
+      </c>
+      <c r="L122" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M122" t="str">
+        <v>214</v>
+      </c>
+      <c r="N122" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O122" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P122" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q122" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R122" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>C3NHkjyv</v>
+      </c>
+      <c r="B123" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C123" t="str">
+        <v>1SA0003913</v>
+      </c>
+      <c r="D123" t="str">
+        <v>10</v>
+      </c>
+      <c r="E123" t="str">
+        <v>755</v>
+      </c>
+      <c r="F123" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G123" t="str">
+        <v>1SA5002281</v>
+      </c>
+      <c r="H123" t="str">
+        <v>C3NHkjyv</v>
+      </c>
+      <c r="I123" t="str">
+        <v>1SA0004056</v>
+      </c>
+      <c r="J123" t="str">
+        <v>10</v>
+      </c>
+      <c r="K123" t="str">
+        <v>624</v>
+      </c>
+      <c r="L123" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M123" t="str">
+        <v>624</v>
+      </c>
+      <c r="N123" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O123" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P123" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q123" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R123" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>rV9cJNFX</v>
+      </c>
+      <c r="B124" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C124" t="str">
+        <v>1SA0003914</v>
+      </c>
+      <c r="D124" t="str">
+        <v>10</v>
+      </c>
+      <c r="E124" t="str">
+        <v>1045</v>
+      </c>
+      <c r="F124" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G124" t="str">
+        <v>1SA5002282</v>
+      </c>
+      <c r="H124" t="str">
+        <v>rV9cJNFX</v>
+      </c>
+      <c r="I124" t="str">
+        <v>1SA0004057</v>
+      </c>
+      <c r="J124" t="str">
+        <v>10</v>
+      </c>
+      <c r="K124" t="str">
+        <v>1045</v>
+      </c>
+      <c r="L124" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M124" t="str">
+        <v>1045</v>
+      </c>
+      <c r="N124" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O124" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P124" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q124" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R124" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>iTK61h50</v>
+      </c>
+      <c r="B125" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C125" t="str">
+        <v>1SA0003915</v>
+      </c>
+      <c r="D125" t="str">
+        <v>10</v>
+      </c>
+      <c r="E125" t="str">
+        <v>1537</v>
+      </c>
+      <c r="F125" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G125" t="str">
+        <v>1SA5002283</v>
+      </c>
+      <c r="H125" t="str">
+        <v>wBggOc5Up</v>
+      </c>
+      <c r="I125" t="str">
+        <v>1SA0004058</v>
+      </c>
+      <c r="J125" t="str">
+        <v>10</v>
+      </c>
+      <c r="K125" t="str">
+        <v>1537</v>
+      </c>
+      <c r="L125" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M125" t="str">
+        <v>1537</v>
+      </c>
+      <c r="N125" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O125" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P125" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q125" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R125" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>pBmJ8YWD</v>
+      </c>
+      <c r="B126" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C126" t="str">
+        <v>1SA0003916</v>
+      </c>
+      <c r="D126" t="str">
+        <v>10</v>
+      </c>
+      <c r="E126" t="str">
+        <v>1243</v>
+      </c>
+      <c r="F126" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G126" t="str">
+        <v>1SA5002284</v>
+      </c>
+      <c r="H126" t="str">
+        <v>pBmJ8YWD</v>
+      </c>
+      <c r="I126" t="str">
+        <v>1SA0004059</v>
+      </c>
+      <c r="J126" t="str">
+        <v>10</v>
+      </c>
+      <c r="K126" t="str">
+        <v>578</v>
+      </c>
+      <c r="L126" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M126" t="str">
+        <v>578</v>
+      </c>
+      <c r="N126" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O126" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P126" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q126" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R126" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>pBmJ8YWD</v>
+      </c>
+      <c r="B127" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C127" t="str">
+        <v>1SA0003916</v>
+      </c>
+      <c r="D127" t="str">
+        <v>10</v>
+      </c>
+      <c r="E127" t="str">
+        <v>1243</v>
+      </c>
+      <c r="F127" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G127" t="str">
+        <v>1SA5002284</v>
+      </c>
+      <c r="H127" t="str">
+        <v>pBmJ8YWD</v>
+      </c>
+      <c r="I127" t="str">
+        <v>1SA0004060</v>
+      </c>
+      <c r="J127" t="str">
+        <v>10</v>
+      </c>
+      <c r="K127" t="str">
+        <v>665</v>
+      </c>
+      <c r="L127" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M127" t="str">
+        <v>665</v>
+      </c>
+      <c r="N127" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O127" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P127" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q127" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R127" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>n21wvseR</v>
+      </c>
+      <c r="B128" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C128" t="str">
+        <v>1SA0003917</v>
+      </c>
+      <c r="D128" t="str">
+        <v>10</v>
+      </c>
+      <c r="E128" t="str">
+        <v>631</v>
+      </c>
+      <c r="F128" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G128" t="str">
+        <v>1SA5002285</v>
+      </c>
+      <c r="H128" t="str">
+        <v>JXqZ9CiAP</v>
+      </c>
+      <c r="I128" t="str">
+        <v>1SA0004061</v>
+      </c>
+      <c r="J128" t="str">
+        <v>10</v>
+      </c>
+      <c r="K128" t="str">
+        <v>631</v>
+      </c>
+      <c r="L128" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M128" t="str">
+        <v>631</v>
+      </c>
+      <c r="N128" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O128" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P128" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q128" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R128" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>vhD6iXdn</v>
+      </c>
+      <c r="B129" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C129" t="str">
+        <v>1SA0003918</v>
+      </c>
+      <c r="D129" t="str">
+        <v>10</v>
+      </c>
+      <c r="E129" t="str">
+        <v>534</v>
+      </c>
+      <c r="F129" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G129" t="str">
+        <v>1SA5002286</v>
+      </c>
+      <c r="H129" t="str">
+        <v>MxjKXVzW2</v>
+      </c>
+      <c r="I129" t="str">
+        <v>1SA0004062</v>
+      </c>
+      <c r="J129" t="str">
+        <v>10</v>
+      </c>
+      <c r="K129" t="str">
+        <v>282</v>
+      </c>
+      <c r="L129" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M129" t="str">
+        <v>282</v>
+      </c>
+      <c r="N129" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O129" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P129" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q129" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R129" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>vhD6iXdn</v>
+      </c>
+      <c r="B130" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C130" t="str">
+        <v>1SA0003918</v>
+      </c>
+      <c r="D130" t="str">
+        <v>10</v>
+      </c>
+      <c r="E130" t="str">
+        <v>534</v>
+      </c>
+      <c r="F130" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G130" t="str">
+        <v>1SA5002286</v>
+      </c>
+      <c r="H130" t="str">
+        <v>CEmCFKKYG</v>
+      </c>
+      <c r="I130" t="str">
+        <v>1SA0004063</v>
+      </c>
+      <c r="J130" t="str">
+        <v>10</v>
+      </c>
+      <c r="K130" t="str">
+        <v>270</v>
+      </c>
+      <c r="L130" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M130" t="str">
+        <v>270</v>
+      </c>
+      <c r="N130" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O130" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P130" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q130" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R130" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>d093gk7r</v>
+      </c>
+      <c r="B131" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C131" t="str">
+        <v>1SA0003919</v>
+      </c>
+      <c r="D131" t="str">
+        <v>10</v>
+      </c>
+      <c r="E131" t="str">
+        <v>1645</v>
+      </c>
+      <c r="F131" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G131" t="str">
+        <v>1SA5002287</v>
+      </c>
+      <c r="H131" t="str">
+        <v>BH3UQRDGG</v>
+      </c>
+      <c r="I131" t="str">
+        <v>1SA0004064</v>
+      </c>
+      <c r="J131" t="str">
+        <v>10</v>
+      </c>
+      <c r="K131" t="str">
+        <v>224</v>
+      </c>
+      <c r="L131" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M131" t="str">
+        <v>224</v>
+      </c>
+      <c r="N131" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O131" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P131" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q131" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R131" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>d093gk7r</v>
+      </c>
+      <c r="B132" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C132" t="str">
+        <v>1SA0003919</v>
+      </c>
+      <c r="D132" t="str">
+        <v>10</v>
+      </c>
+      <c r="E132" t="str">
+        <v>1645</v>
+      </c>
+      <c r="F132" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G132" t="str">
+        <v>1SA5002287</v>
+      </c>
+      <c r="H132" t="str">
+        <v>VucZeYGZ0</v>
+      </c>
+      <c r="I132" t="str">
+        <v>1SA0004065</v>
+      </c>
+      <c r="J132" t="str">
+        <v>10</v>
+      </c>
+      <c r="K132" t="str">
+        <v>1421</v>
+      </c>
+      <c r="L132" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M132" t="str">
+        <v>1421</v>
+      </c>
+      <c r="N132" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O132" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P132" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q132" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R132" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>QDF1esgE</v>
+      </c>
+      <c r="B133" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C133" t="str">
+        <v>1SA0003920</v>
+      </c>
+      <c r="D133" t="str">
+        <v>10</v>
+      </c>
+      <c r="E133" t="str">
+        <v>1907</v>
+      </c>
+      <c r="F133" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G133" t="str">
+        <v>1SA5002288</v>
+      </c>
+      <c r="H133" t="str">
+        <v>QDF1esgE</v>
+      </c>
+      <c r="I133" t="str">
+        <v>1SA0004066</v>
+      </c>
+      <c r="J133" t="str">
+        <v>10</v>
+      </c>
+      <c r="K133" t="str">
+        <v>1907</v>
+      </c>
+      <c r="L133" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M133" t="str">
+        <v>1907</v>
+      </c>
+      <c r="N133" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O133" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P133" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q133" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R133" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>kjEUyTgK</v>
+      </c>
+      <c r="B134" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C134" t="str">
+        <v>1SA0003921</v>
+      </c>
+      <c r="D134" t="str">
+        <v>10</v>
+      </c>
+      <c r="E134" t="str">
+        <v>561</v>
+      </c>
+      <c r="F134" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G134" t="str">
+        <v>1SA5002289</v>
+      </c>
+      <c r="H134" t="str">
+        <v>kjEUyTgK</v>
+      </c>
+      <c r="I134" t="str">
+        <v>1SA0004067</v>
+      </c>
+      <c r="J134" t="str">
+        <v>10</v>
+      </c>
+      <c r="K134" t="str">
+        <v>561</v>
+      </c>
+      <c r="L134" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M134" t="str">
+        <v>561</v>
+      </c>
+      <c r="N134" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O134" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P134" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q134" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R134" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>5pfU2Gbk</v>
+      </c>
+      <c r="B135" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C135" t="str">
+        <v>1SA0003922</v>
+      </c>
+      <c r="D135" t="str">
+        <v>10</v>
+      </c>
+      <c r="E135" t="str">
+        <v>1960</v>
+      </c>
+      <c r="F135" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G135" t="str">
+        <v>1SA5002290</v>
+      </c>
+      <c r="H135" t="str">
+        <v>5pfU2Gbk</v>
+      </c>
+      <c r="I135" t="str">
+        <v>1SA0004068</v>
+      </c>
+      <c r="J135" t="str">
+        <v>10</v>
+      </c>
+      <c r="K135" t="str">
+        <v>2352</v>
+      </c>
+      <c r="L135" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M135" t="str">
+        <v>2352</v>
+      </c>
+      <c r="N135" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O135" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P135" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q135" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R135" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>ezkFJNUn</v>
+      </c>
+      <c r="B136" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C136" t="str">
+        <v>1SA0003923</v>
+      </c>
+      <c r="D136" t="str">
+        <v>10</v>
+      </c>
+      <c r="E136" t="str">
+        <v>1956</v>
+      </c>
+      <c r="F136" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G136" t="str">
+        <v>1SA5002291</v>
+      </c>
+      <c r="H136" t="str">
+        <v>ezkFJNUn</v>
+      </c>
+      <c r="I136" t="str">
+        <v>1SA0004069</v>
+      </c>
+      <c r="J136" t="str">
+        <v>10</v>
+      </c>
+      <c r="K136" t="str">
+        <v>672</v>
+      </c>
+      <c r="L136" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M136" t="str">
+        <v>672</v>
+      </c>
+      <c r="N136" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O136" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P136" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q136" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R136" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>ezkFJNUn</v>
+      </c>
+      <c r="B137" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C137" t="str">
+        <v>1SA0003923</v>
+      </c>
+      <c r="D137" t="str">
+        <v>10</v>
+      </c>
+      <c r="E137" t="str">
+        <v>1956</v>
+      </c>
+      <c r="F137" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G137" t="str">
+        <v>1SA5002291</v>
+      </c>
+      <c r="H137" t="str">
+        <v>ezkFJNUn</v>
+      </c>
+      <c r="I137" t="str">
+        <v>1SA0004070</v>
+      </c>
+      <c r="J137" t="str">
+        <v>10</v>
+      </c>
+      <c r="K137" t="str">
+        <v>1284</v>
+      </c>
+      <c r="L137" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M137" t="str">
+        <v>1284</v>
+      </c>
+      <c r="N137" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O137" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P137" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q137" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R137" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>KUQDBlYo</v>
+      </c>
+      <c r="B138" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C138" t="str">
+        <v>1SA0003924</v>
+      </c>
+      <c r="D138" t="str">
+        <v>10</v>
+      </c>
+      <c r="E138" t="str">
+        <v>2142</v>
+      </c>
+      <c r="F138" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G138" t="str">
+        <v>1SA5002292</v>
+      </c>
+      <c r="H138" t="str">
+        <v>uLCd6a9j4</v>
+      </c>
+      <c r="I138" t="str">
+        <v>1SA0004071</v>
+      </c>
+      <c r="J138" t="str">
+        <v>10</v>
+      </c>
+      <c r="K138" t="str">
+        <v>45</v>
+      </c>
+      <c r="L138" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M138" t="str">
+        <v>45</v>
+      </c>
+      <c r="N138" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O138" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P138" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q138" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R138" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>KUQDBlYo</v>
+      </c>
+      <c r="B139" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C139" t="str">
+        <v>1SA0003924</v>
+      </c>
+      <c r="D139" t="str">
+        <v>10</v>
+      </c>
+      <c r="E139" t="str">
+        <v>2142</v>
+      </c>
+      <c r="F139" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G139" t="str">
+        <v>1SA5002292</v>
+      </c>
+      <c r="H139" t="str">
+        <v>GOB73cZjx</v>
+      </c>
+      <c r="I139" t="str">
+        <v>1SA0004072</v>
+      </c>
+      <c r="J139" t="str">
+        <v>10</v>
+      </c>
+      <c r="K139" t="str">
+        <v>2548</v>
+      </c>
+      <c r="L139" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M139" t="str">
+        <v>2548</v>
+      </c>
+      <c r="N139" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O139" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P139" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q139" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R139" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>boMF1uEB</v>
+      </c>
+      <c r="B140" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C140" t="str">
+        <v>1SA0003925</v>
+      </c>
+      <c r="D140" t="str">
+        <v>10</v>
+      </c>
+      <c r="E140" t="str">
+        <v>1395</v>
+      </c>
+      <c r="F140" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G140" t="str">
+        <v>1SA5002293</v>
+      </c>
+      <c r="H140" t="str">
+        <v>boMF1uEB</v>
+      </c>
+      <c r="I140" t="str">
+        <v>1SA0004073</v>
+      </c>
+      <c r="J140" t="str">
+        <v>10</v>
+      </c>
+      <c r="K140" t="str">
+        <v>262</v>
+      </c>
+      <c r="L140" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M140" t="str">
+        <v>262</v>
+      </c>
+      <c r="N140" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O140" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P140" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q140" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R140" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>boMF1uEB</v>
+      </c>
+      <c r="B141" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C141" t="str">
+        <v>1SA0003925</v>
+      </c>
+      <c r="D141" t="str">
+        <v>10</v>
+      </c>
+      <c r="E141" t="str">
+        <v>1395</v>
+      </c>
+      <c r="F141" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G141" t="str">
+        <v>1SA5002293</v>
+      </c>
+      <c r="H141" t="str">
+        <v>boMF1uEB</v>
+      </c>
+      <c r="I141" t="str">
+        <v>1SA0004074</v>
+      </c>
+      <c r="J141" t="str">
+        <v>10</v>
+      </c>
+      <c r="K141" t="str">
+        <v>1260</v>
+      </c>
+      <c r="L141" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M141" t="str">
+        <v>1260</v>
+      </c>
+      <c r="N141" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O141" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P141" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q141" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R141" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>9dqrUXW4</v>
+      </c>
+      <c r="B142" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C142" t="str">
+        <v>1SA0003926</v>
+      </c>
+      <c r="D142" t="str">
+        <v>10</v>
+      </c>
+      <c r="E142" t="str">
+        <v>1316</v>
+      </c>
+      <c r="F142" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G142" t="str">
+        <v>1SA5002294</v>
+      </c>
+      <c r="H142" t="str">
+        <v>9dqrUXW4</v>
+      </c>
+      <c r="I142" t="str">
+        <v>1SA0004075</v>
+      </c>
+      <c r="J142" t="str">
+        <v>10</v>
+      </c>
+      <c r="K142" t="str">
+        <v>151</v>
+      </c>
+      <c r="L142" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M142" t="str">
+        <v>151</v>
+      </c>
+      <c r="N142" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O142" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P142" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q142" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R142" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>9dqrUXW4</v>
+      </c>
+      <c r="B143" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C143" t="str">
+        <v>1SA0003926</v>
+      </c>
+      <c r="D143" t="str">
+        <v>10</v>
+      </c>
+      <c r="E143" t="str">
+        <v>1316</v>
+      </c>
+      <c r="F143" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G143" t="str">
+        <v>1SA5002294</v>
+      </c>
+      <c r="H143" t="str">
+        <v>9dqrUXW4</v>
+      </c>
+      <c r="I143" t="str">
+        <v>1SA0004076</v>
+      </c>
+      <c r="J143" t="str">
+        <v>10</v>
+      </c>
+      <c r="K143" t="str">
+        <v>1165</v>
+      </c>
+      <c r="L143" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M143" t="str">
+        <v>1165</v>
+      </c>
+      <c r="N143" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O143" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P143" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q143" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R143" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>CbniKAy9</v>
+      </c>
+      <c r="B144" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C144" t="str">
+        <v>1SA0003927</v>
+      </c>
+      <c r="D144" t="str">
+        <v>10</v>
+      </c>
+      <c r="E144" t="str">
+        <v>647</v>
+      </c>
+      <c r="F144" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G144" t="str">
+        <v>1SA5002295</v>
+      </c>
+      <c r="H144" t="str">
+        <v>CbniKAy9</v>
+      </c>
+      <c r="I144" t="str">
+        <v>1SA0004077</v>
+      </c>
+      <c r="J144" t="str">
+        <v>10</v>
+      </c>
+      <c r="K144" t="str">
+        <v>154</v>
+      </c>
+      <c r="L144" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M144" t="str">
+        <v>154</v>
+      </c>
+      <c r="N144" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O144" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P144" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q144" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R144" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>CbniKAy9</v>
+      </c>
+      <c r="B145" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C145" t="str">
+        <v>1SA0003927</v>
+      </c>
+      <c r="D145" t="str">
+        <v>10</v>
+      </c>
+      <c r="E145" t="str">
+        <v>647</v>
+      </c>
+      <c r="F145" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G145" t="str">
+        <v>1SA5002295</v>
+      </c>
+      <c r="H145" t="str">
+        <v>CbniKAy9</v>
+      </c>
+      <c r="I145" t="str">
+        <v>1SA0004078</v>
+      </c>
+      <c r="J145" t="str">
+        <v>10</v>
+      </c>
+      <c r="K145" t="str">
+        <v>493</v>
+      </c>
+      <c r="L145" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M145" t="str">
+        <v>493</v>
+      </c>
+      <c r="N145" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O145" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P145" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q145" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R145" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>DJS1eBWM</v>
+      </c>
+      <c r="B146" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C146" t="str">
+        <v>1SA0003928</v>
+      </c>
+      <c r="D146" t="str">
+        <v>10</v>
+      </c>
+      <c r="E146" t="str">
+        <v>2497</v>
+      </c>
+      <c r="F146" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G146" t="str">
+        <v>1SA5002296</v>
+      </c>
+      <c r="H146" t="str">
+        <v>A7qvmxV4I</v>
+      </c>
+      <c r="I146" t="str">
+        <v>1SA0004079</v>
+      </c>
+      <c r="J146" t="str">
+        <v>10</v>
+      </c>
+      <c r="K146" t="str">
+        <v>3162</v>
+      </c>
+      <c r="L146" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M146" t="str">
+        <v>3162</v>
+      </c>
+      <c r="N146" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O146" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P146" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q146" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R146" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>DltnQ0co</v>
+      </c>
+      <c r="B147" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C147" t="str">
+        <v>1SA0003929</v>
+      </c>
+      <c r="D147" t="str">
+        <v>10</v>
+      </c>
+      <c r="E147" t="str">
+        <v>2201</v>
+      </c>
+      <c r="F147" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G147" t="str">
+        <v>1SA5002297</v>
+      </c>
+      <c r="H147" t="str">
+        <v>Xr7DoU57A</v>
+      </c>
+      <c r="I147" t="str">
+        <v>1SA0004080</v>
+      </c>
+      <c r="J147" t="str">
+        <v>10</v>
+      </c>
+      <c r="K147" t="str">
+        <v>1008</v>
+      </c>
+      <c r="L147" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M147" t="str">
+        <v>1008</v>
+      </c>
+      <c r="N147" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O147" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P147" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q147" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R147" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>DltnQ0co</v>
+      </c>
+      <c r="B148" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C148" t="str">
+        <v>1SA0003929</v>
+      </c>
+      <c r="D148" t="str">
+        <v>10</v>
+      </c>
+      <c r="E148" t="str">
+        <v>2201</v>
+      </c>
+      <c r="F148" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G148" t="str">
+        <v>1SA5002297</v>
+      </c>
+      <c r="H148" t="str">
+        <v>hsxgA6YYd</v>
+      </c>
+      <c r="I148" t="str">
+        <v>1SA0004081</v>
+      </c>
+      <c r="J148" t="str">
+        <v>10</v>
+      </c>
+      <c r="K148" t="str">
+        <v>1193</v>
+      </c>
+      <c r="L148" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M148" t="str">
+        <v>1193</v>
+      </c>
+      <c r="N148" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O148" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P148" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q148" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R148" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>ZL7MWQl3</v>
+      </c>
+      <c r="B149" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C149" t="str">
+        <v>1SA0003930</v>
+      </c>
+      <c r="D149" t="str">
+        <v>10</v>
+      </c>
+      <c r="E149" t="str">
+        <v>1974</v>
+      </c>
+      <c r="F149" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G149" t="str">
+        <v>1SA5002298</v>
+      </c>
+      <c r="H149" t="str">
+        <v>ZL7MWQl3</v>
+      </c>
+      <c r="I149" t="str">
+        <v>1SA0004082</v>
+      </c>
+      <c r="J149" t="str">
+        <v>10</v>
+      </c>
+      <c r="K149" t="str">
+        <v>1974</v>
+      </c>
+      <c r="L149" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M149" t="str">
+        <v>1974</v>
+      </c>
+      <c r="N149" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O149" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P149" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q149" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R149" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>v5dkLJwn</v>
+      </c>
+      <c r="B150" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C150" t="str">
+        <v>1SA0003931</v>
+      </c>
+      <c r="D150" t="str">
+        <v>10</v>
+      </c>
+      <c r="E150" t="str">
+        <v>2500</v>
+      </c>
+      <c r="F150" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G150" t="str">
+        <v>1SA5002299</v>
+      </c>
+      <c r="H150" t="str">
+        <v>v5dkLJwn</v>
+      </c>
+      <c r="I150" t="str">
+        <v>1SA0004083</v>
+      </c>
+      <c r="J150" t="str">
+        <v>10</v>
+      </c>
+      <c r="K150" t="str">
+        <v>3492</v>
+      </c>
+      <c r="L150" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M150" t="str">
+        <v>3492</v>
+      </c>
+      <c r="N150" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O150" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P150" t="str">
+        <v>OverDelivery-Happy</v>
+      </c>
+      <c r="Q150" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R150" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>sau24mt5</v>
+      </c>
+      <c r="B151" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C151" t="str">
+        <v>1SA0003932</v>
+      </c>
+      <c r="D151" t="str">
+        <v>10</v>
+      </c>
+      <c r="E151" t="str">
+        <v>1616</v>
+      </c>
+      <c r="F151" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G151" t="str">
+        <v>1SA5002300</v>
+      </c>
+      <c r="H151" t="str">
+        <v>mT7zyz8eP</v>
+      </c>
+      <c r="I151" t="str">
+        <v>1SA0004084</v>
+      </c>
+      <c r="J151" t="str">
+        <v>10</v>
+      </c>
+      <c r="K151" t="str">
+        <v>748</v>
+      </c>
+      <c r="L151" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M151" t="str">
+        <v>748</v>
+      </c>
+      <c r="N151" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O151" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P151" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q151" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R151" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>sau24mt5</v>
+      </c>
+      <c r="B152" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C152" t="str">
+        <v>1SA0003932</v>
+      </c>
+      <c r="D152" t="str">
+        <v>10</v>
+      </c>
+      <c r="E152" t="str">
+        <v>1616</v>
+      </c>
+      <c r="F152" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G152" t="str">
+        <v>1SA5002300</v>
+      </c>
+      <c r="H152" t="str">
+        <v>rFxQwWCtp</v>
+      </c>
+      <c r="I152" t="str">
+        <v>1SA0004085</v>
+      </c>
+      <c r="J152" t="str">
+        <v>10</v>
+      </c>
+      <c r="K152" t="str">
+        <v>891</v>
+      </c>
+      <c r="L152" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M152" t="str">
+        <v>891</v>
+      </c>
+      <c r="N152" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O152" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P152" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q152" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R152" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>5uW6IObV</v>
+      </c>
+      <c r="B153" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C153" t="str">
+        <v>1SA0003933</v>
+      </c>
+      <c r="D153" t="str">
+        <v>10</v>
+      </c>
+      <c r="E153" t="str">
+        <v>1151</v>
+      </c>
+      <c r="F153" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G153" t="str">
+        <v>1SA5002301</v>
+      </c>
+      <c r="H153" t="str">
+        <v>fhhjgUuxh</v>
+      </c>
+      <c r="I153" t="str">
+        <v>1SA0004086</v>
+      </c>
+      <c r="J153" t="str">
+        <v>10</v>
+      </c>
+      <c r="K153" t="str">
+        <v>1151</v>
+      </c>
+      <c r="L153" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M153" t="str">
+        <v>1151</v>
+      </c>
+      <c r="N153" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O153" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P153" t="str">
+        <v>UnderDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q153" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R153" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>ybwSxa7L</v>
+      </c>
+      <c r="B154" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C154" t="str">
+        <v>1SA0003934</v>
+      </c>
+      <c r="D154" t="str">
+        <v>10</v>
+      </c>
+      <c r="E154" t="str">
+        <v>2167</v>
+      </c>
+      <c r="F154" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G154" t="str">
+        <v>1SA5002302</v>
+      </c>
+      <c r="H154" t="str">
+        <v>ybwSxa7L</v>
+      </c>
+      <c r="I154" t="str">
+        <v>1SA0004087</v>
+      </c>
+      <c r="J154" t="str">
+        <v>10</v>
+      </c>
+      <c r="K154" t="str">
+        <v>493</v>
+      </c>
+      <c r="L154" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M154" t="str">
+        <v>493</v>
+      </c>
+      <c r="N154" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O154" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P154" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q154" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R154" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>ybwSxa7L</v>
+      </c>
+      <c r="B155" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C155" t="str">
+        <v>1SA0003934</v>
+      </c>
+      <c r="D155" t="str">
+        <v>10</v>
+      </c>
+      <c r="E155" t="str">
+        <v>2167</v>
+      </c>
+      <c r="F155" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G155" t="str">
+        <v>1SA5002302</v>
+      </c>
+      <c r="H155" t="str">
+        <v>ybwSxa7L</v>
+      </c>
+      <c r="I155" t="str">
+        <v>1SA0004088</v>
+      </c>
+      <c r="J155" t="str">
+        <v>10</v>
+      </c>
+      <c r="K155" t="str">
+        <v>1674</v>
+      </c>
+      <c r="L155" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M155" t="str">
+        <v>1674</v>
+      </c>
+      <c r="N155" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O155" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P155" t="str">
+        <v>UnderDelivery-Happy</v>
+      </c>
+      <c r="Q155" t="str">
+        <v>OneToMany</v>
+      </c>
+      <c r="R155" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>uxcZKM9N</v>
+      </c>
+      <c r="B156" t="str">
+        <v>HS58M1PTWJ</v>
+      </c>
+      <c r="C156" t="str">
+        <v>1SA0003935</v>
+      </c>
+      <c r="D156" t="str">
+        <v>10</v>
+      </c>
+      <c r="E156" t="str">
+        <v>1719</v>
+      </c>
+      <c r="F156" t="str">
+        <v>USD</v>
+      </c>
+      <c r="G156" t="str">
+        <v>1SA5002303</v>
+      </c>
+      <c r="H156" t="str">
+        <v>kuY74m6nm</v>
+      </c>
+      <c r="I156" t="str">
+        <v>1SA0004089</v>
+      </c>
+      <c r="J156" t="str">
+        <v>10</v>
+      </c>
+      <c r="K156" t="str">
+        <v>2301</v>
+      </c>
+      <c r="L156" t="str">
+        <v>USD</v>
+      </c>
+      <c r="M156" t="str">
+        <v>2301</v>
+      </c>
+      <c r="N156" t="str">
+        <v>SAC1</v>
+      </c>
+      <c r="O156" t="str">
+        <v>JSON</v>
+      </c>
+      <c r="P156" t="str">
+        <v>OverDelivery-DiffPrepayment</v>
+      </c>
+      <c r="Q156" t="str">
+        <v>OneToOne</v>
+      </c>
+      <c r="R156" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R78"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R156"/>
   </ignoredErrors>
 </worksheet>
 </file>